--- a/data/forestry.xlsx
+++ b/data/forestry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuigalwayie-my.sharepoint.com/personal/0121302s_universityofgalway_ie/Documents/03. RESEARCH/01. LIVE PROEJCTS/CAMG Modelling/18. MODEL DEVELOPMENT/INTERFACE/Revisions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C711141F-08BA-4AAE-A645-22AF8FDAF406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA54BE08-A35F-4265-88C1-53E433BD6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{B86DC117-0B88-41ED-9D24-CA48C208C5B6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{B86DC117-0B88-41ED-9D24-CA48C208C5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="existing_forest" sheetId="1" r:id="rId1"/>
@@ -426,9 +426,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -436,6 +433,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -20121,8 +20121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0890E3-5A87-4964-A460-B7480D8C3A7A}">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25923,9 +25923,9 @@
       <c r="O20" s="28">
         <v>0</v>
       </c>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19">
@@ -30088,10 +30088,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8944EF0B-4042-4779-82CE-4B05AD3AA32F}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -30105,10 +30105,10 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -30169,10 +30169,10 @@
       <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -30181,19 +30181,19 @@
       <c r="E3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>42</v>
       </c>
     </row>
@@ -30212,8 +30212,8 @@
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="20">
-        <v>2025</v>
+      <c r="A5" s="21">
+        <v>2020</v>
       </c>
       <c r="B5" s="23">
         <v>0</v>
@@ -30244,8 +30244,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20">
-        <v>2026</v>
+      <c r="A6" s="21">
+        <v>2021</v>
       </c>
       <c r="B6" s="23">
         <v>0</v>
@@ -30276,8 +30276,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="20">
-        <v>2027</v>
+      <c r="A7" s="21">
+        <v>2022</v>
       </c>
       <c r="B7" s="23">
         <v>0</v>
@@ -30308,8 +30308,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="20">
-        <v>2028</v>
+      <c r="A8" s="21">
+        <v>2023</v>
       </c>
       <c r="B8" s="23">
         <v>0</v>
@@ -30340,8 +30340,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="20">
-        <v>2029</v>
+      <c r="A9" s="21">
+        <v>2024</v>
       </c>
       <c r="B9" s="23">
         <v>0</v>
@@ -30373,7 +30373,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="20">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="B10" s="23">
         <v>0</v>
@@ -30405,7 +30405,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="20">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B11" s="23">
         <v>0</v>
@@ -30437,7 +30437,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="20">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B12" s="23">
         <v>0</v>
@@ -30469,7 +30469,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="20">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -30501,7 +30501,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="20">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="23">
         <v>0</v>
@@ -30533,38 +30533,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="20">
-        <v>2035</v>
-      </c>
-      <c r="B15" s="28">
-        <f>((C15*1000*16)/3600)*0.85</f>
-        <v>419.371839293123</v>
-      </c>
-      <c r="C15" s="28">
-        <f>D15*8.8</f>
-        <v>111.01019275406196</v>
-      </c>
-      <c r="D15" s="28">
-        <f>D20/6</f>
-        <v>12.614794631143404</v>
-      </c>
-      <c r="E15" s="28">
-        <f>D15</f>
-        <v>12.614794631143404</v>
-      </c>
-      <c r="F15" s="28">
-        <f>-(((((8.8/2)*1.5)-2)*3.67)/20)*D15</f>
-        <v>-10.648148148148149</v>
-      </c>
-      <c r="G15" s="30">
-        <f>-B15*0.255*0.1</f>
-        <v>-10.693981901974638</v>
+        <v>2030</v>
+      </c>
+      <c r="B15" s="23">
+        <v>0</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
       </c>
       <c r="H15" s="23">
         <v>0</v>
       </c>
-      <c r="I15" s="28">
-        <f>I20/6</f>
-        <v>166.66666666666666</v>
+      <c r="I15" s="23">
+        <v>0</v>
       </c>
       <c r="J15" s="23">
         <v>0</v>
@@ -30572,38 +30565,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="20">
-        <v>2036</v>
-      </c>
-      <c r="B16" s="28">
-        <f t="shared" ref="B16:B79" si="0">((C16*1000*16)/3600)*0.85</f>
-        <v>838.74367858624601</v>
-      </c>
-      <c r="C16" s="28">
-        <f t="shared" ref="C16:C79" si="1">D16*8.8</f>
-        <v>222.02038550812392</v>
-      </c>
-      <c r="D16" s="28">
-        <f>D15+(D$20/6)</f>
-        <v>25.229589262286808</v>
-      </c>
-      <c r="E16" s="28">
-        <f t="shared" ref="E16:E19" si="2">D16</f>
-        <v>25.229589262286808</v>
-      </c>
-      <c r="F16" s="28">
-        <f t="shared" ref="F16:F39" si="3">-(((((8.8/2)*1.5)-2)*3.67)/20)*D16</f>
-        <v>-21.296296296296298</v>
-      </c>
-      <c r="G16" s="30">
-        <f t="shared" ref="G16:G79" si="4">-B16*0.255*0.1</f>
-        <v>-21.387963803949276</v>
+        <v>2031</v>
+      </c>
+      <c r="B16" s="23">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
       </c>
       <c r="H16" s="23">
         <v>0</v>
       </c>
-      <c r="I16" s="28">
-        <f>I15+(I$20/6)</f>
-        <v>333.33333333333331</v>
+      <c r="I16" s="23">
+        <v>0</v>
       </c>
       <c r="J16" s="23">
         <v>0</v>
@@ -30611,314 +30597,298 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="20">
+        <v>2032</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="20">
+        <v>2033</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0</v>
+      </c>
+      <c r="J18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="20">
+        <v>2034</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="20">
+        <v>2035</v>
+      </c>
+      <c r="B20" s="28">
+        <f>((C20*1000*16)/3600)*0.85</f>
+        <v>419.371839293123</v>
+      </c>
+      <c r="C20" s="28">
+        <f>D20*8.8</f>
+        <v>111.01019275406196</v>
+      </c>
+      <c r="D20" s="28">
+        <f>D25/6</f>
+        <v>12.614794631143404</v>
+      </c>
+      <c r="E20" s="28">
+        <f>D20</f>
+        <v>12.614794631143404</v>
+      </c>
+      <c r="F20" s="28">
+        <f>-(((((8.8/2)*1.5)-2)*3.67)/20)*D20</f>
+        <v>-10.648148148148149</v>
+      </c>
+      <c r="G20" s="30">
+        <f>-B20*0.255*0.1</f>
+        <v>-10.693981901974638</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <f>I25/6</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="20">
+        <v>2036</v>
+      </c>
+      <c r="B21" s="28">
+        <f t="shared" ref="B21:B84" si="0">((C21*1000*16)/3600)*0.85</f>
+        <v>838.74367858624601</v>
+      </c>
+      <c r="C21" s="28">
+        <f t="shared" ref="C21:C84" si="1">D21*8.8</f>
+        <v>222.02038550812392</v>
+      </c>
+      <c r="D21" s="28">
+        <f>D20+(D$25/6)</f>
+        <v>25.229589262286808</v>
+      </c>
+      <c r="E21" s="28">
+        <f t="shared" ref="E21:E24" si="2">D21</f>
+        <v>25.229589262286808</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" ref="F21:F44" si="3">-(((((8.8/2)*1.5)-2)*3.67)/20)*D21</f>
+        <v>-21.296296296296298</v>
+      </c>
+      <c r="G21" s="30">
+        <f t="shared" ref="G21:G84" si="4">-B21*0.255*0.1</f>
+        <v>-21.387963803949276</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <f>I20+(I$25/6)</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="20">
         <v>2037</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B22" s="28">
         <f t="shared" si="0"/>
         <v>1258.115517879369</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C22" s="28">
         <f t="shared" si="1"/>
         <v>333.03057826218588</v>
       </c>
-      <c r="D17" s="28">
-        <f>D16+(D$20/6)</f>
+      <c r="D22" s="28">
+        <f>D21+(D$25/6)</f>
         <v>37.844383893430212</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E22" s="28">
         <f t="shared" si="2"/>
         <v>37.844383893430212</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F22" s="28">
         <f t="shared" si="3"/>
         <v>-31.944444444444446</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G22" s="30">
         <f t="shared" si="4"/>
         <v>-32.081945705923907</v>
       </c>
-      <c r="H17" s="23">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
-        <f t="shared" ref="I17:I19" si="5">I16+(I$20/6)</f>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" ref="I22:I24" si="5">I21+(I$25/6)</f>
         <v>500</v>
       </c>
-      <c r="J17" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="20">
+      <c r="J22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="20">
         <v>2038</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B23" s="28">
         <f t="shared" si="0"/>
         <v>1677.487357172492</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C23" s="28">
         <f t="shared" si="1"/>
         <v>444.04077101624785</v>
       </c>
-      <c r="D18" s="28">
-        <f>D17+(D$20/6)</f>
+      <c r="D23" s="28">
+        <f>D22+(D$25/6)</f>
         <v>50.459178524573616</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E23" s="28">
         <f t="shared" si="2"/>
         <v>50.459178524573616</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F23" s="28">
         <f t="shared" si="3"/>
         <v>-42.592592592592595</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G23" s="30">
         <f t="shared" si="4"/>
         <v>-42.775927607898552</v>
       </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="28">
+      <c r="H23" s="23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
         <f t="shared" si="5"/>
         <v>666.66666666666663</v>
       </c>
-      <c r="J18" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="20">
+      <c r="J23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="20">
         <v>2039</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B24" s="28">
         <f t="shared" si="0"/>
         <v>2096.8591964656148</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C24" s="28">
         <f t="shared" si="1"/>
         <v>555.05096377030986</v>
       </c>
-      <c r="D19" s="28">
-        <f>D18+(D$20/6)</f>
+      <c r="D24" s="28">
+        <f>D23+(D$25/6)</f>
         <v>63.07397315571702</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E24" s="28">
         <f t="shared" si="2"/>
         <v>63.07397315571702</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F24" s="28">
         <f t="shared" si="3"/>
         <v>-53.24074074074074</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G24" s="30">
         <f t="shared" si="4"/>
         <v>-53.469909509873176</v>
       </c>
-      <c r="H19" s="23">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
+      <c r="I24" s="28">
         <f t="shared" si="5"/>
         <v>833.33333333333326</v>
       </c>
-      <c r="J19" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="20">
-        <v>2040</v>
-      </c>
-      <c r="B20" s="28">
-        <f t="shared" si="0"/>
-        <v>2516.231035758738</v>
-      </c>
-      <c r="C20" s="28">
-        <f t="shared" si="1"/>
-        <v>666.06115652437177</v>
-      </c>
-      <c r="D20" s="28">
-        <f>((((I20/0.9)/3.67)*2))/8</f>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="E20" s="28">
-        <f>D20</f>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="F20" s="28">
-        <f t="shared" si="3"/>
-        <v>-63.888888888888893</v>
-      </c>
-      <c r="G20" s="30">
-        <f t="shared" si="4"/>
-        <v>-64.163891411847814</v>
-      </c>
-      <c r="H20" s="23">
-        <v>0</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="20">
-        <v>2041</v>
-      </c>
-      <c r="B21" s="28">
-        <f t="shared" si="0"/>
-        <v>2516.231035758738</v>
-      </c>
-      <c r="C21" s="28">
-        <f t="shared" si="1"/>
-        <v>666.06115652437177</v>
-      </c>
-      <c r="D21" s="28">
-        <f>D20</f>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="E21" s="28">
-        <f>E20</f>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="F21" s="28">
-        <f t="shared" si="3"/>
-        <v>-63.888888888888893</v>
-      </c>
-      <c r="G21" s="30">
-        <f t="shared" si="4"/>
-        <v>-64.163891411847814</v>
-      </c>
-      <c r="H21" s="23">
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="20">
-        <v>2042</v>
-      </c>
-      <c r="B22" s="28">
-        <f t="shared" si="0"/>
-        <v>2516.231035758738</v>
-      </c>
-      <c r="C22" s="28">
-        <f t="shared" si="1"/>
-        <v>666.06115652437177</v>
-      </c>
-      <c r="D22" s="28">
-        <f t="shared" ref="D22:E37" si="6">D21</f>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="E22" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="F22" s="28">
-        <f t="shared" si="3"/>
-        <v>-63.888888888888893</v>
-      </c>
-      <c r="G22" s="30">
-        <f t="shared" si="4"/>
-        <v>-64.163891411847814</v>
-      </c>
-      <c r="H22" s="23">
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="20">
-        <v>2043</v>
-      </c>
-      <c r="B23" s="28">
-        <f t="shared" si="0"/>
-        <v>2516.231035758738</v>
-      </c>
-      <c r="C23" s="28">
-        <f t="shared" si="1"/>
-        <v>666.06115652437177</v>
-      </c>
-      <c r="D23" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="E23" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="F23" s="28">
-        <f t="shared" si="3"/>
-        <v>-63.888888888888893</v>
-      </c>
-      <c r="G23" s="30">
-        <f t="shared" si="4"/>
-        <v>-64.163891411847814</v>
-      </c>
-      <c r="H23" s="23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="28">
-        <v>1000</v>
-      </c>
-      <c r="J23" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="20">
-        <v>2044</v>
-      </c>
-      <c r="B24" s="28">
-        <f t="shared" si="0"/>
-        <v>2516.231035758738</v>
-      </c>
-      <c r="C24" s="28">
-        <f t="shared" si="1"/>
-        <v>666.06115652437177</v>
-      </c>
-      <c r="D24" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="E24" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
-      </c>
-      <c r="F24" s="28">
-        <f t="shared" si="3"/>
-        <v>-63.888888888888893</v>
-      </c>
-      <c r="G24" s="30">
-        <f t="shared" si="4"/>
-        <v>-64.163891411847814</v>
-      </c>
-      <c r="H24" s="23">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
-        <v>1000</v>
-      </c>
       <c r="J24" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="20">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B25" s="28">
         <f t="shared" si="0"/>
@@ -30929,11 +30899,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D25" s="28">
-        <f t="shared" si="6"/>
+        <f>((((I25/0.9)/3.67)*2))/8</f>
         <v>75.688767786860424</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="6"/>
+        <f>D25</f>
         <v>75.688767786860424</v>
       </c>
       <c r="F25" s="28">
@@ -30956,7 +30926,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="20">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B26" s="28">
         <f t="shared" si="0"/>
@@ -30967,11 +30937,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" si="6"/>
+        <f>D25</f>
         <v>75.688767786860424</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="6"/>
+        <f>E25</f>
         <v>75.688767786860424</v>
       </c>
       <c r="F26" s="28">
@@ -30994,7 +30964,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="20">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="B27" s="28">
         <f t="shared" si="0"/>
@@ -31005,7 +30975,7 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D27:E42" si="6">D26</f>
         <v>75.688767786860424</v>
       </c>
       <c r="E27" s="28">
@@ -31032,7 +31002,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="20">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B28" s="28">
         <f t="shared" si="0"/>
@@ -31070,7 +31040,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="20">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B29" s="28">
         <f t="shared" si="0"/>
@@ -31108,7 +31078,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="20">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B30" s="28">
         <f t="shared" si="0"/>
@@ -31146,7 +31116,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="20">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B31" s="28">
         <f t="shared" si="0"/>
@@ -31184,7 +31154,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="20">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="B32" s="28">
         <f t="shared" si="0"/>
@@ -31222,7 +31192,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="20">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B33" s="28">
         <f t="shared" si="0"/>
@@ -31260,7 +31230,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="20">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B34" s="28">
         <f t="shared" si="0"/>
@@ -31298,7 +31268,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="20">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="B35" s="28">
         <f t="shared" si="0"/>
@@ -31336,7 +31306,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="20">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="B36" s="28">
         <f t="shared" si="0"/>
@@ -31374,7 +31344,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="20">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="B37" s="28">
         <f t="shared" si="0"/>
@@ -31412,7 +31382,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="20">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="B38" s="28">
         <f t="shared" si="0"/>
@@ -31423,11 +31393,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D38" s="28">
-        <f t="shared" ref="D38:E53" si="7">D37</f>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F38" s="28">
@@ -31450,7 +31420,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="20">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="B39" s="28">
         <f t="shared" si="0"/>
@@ -31461,11 +31431,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D39" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E39" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F39" s="28">
@@ -31488,7 +31458,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="20">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="B40" s="28">
         <f t="shared" si="0"/>
@@ -31499,15 +31469,16 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D40" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E40" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F40" s="28">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-63.888888888888893</v>
       </c>
       <c r="G40" s="30">
         <f t="shared" si="4"/>
@@ -31525,7 +31496,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="20">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="B41" s="28">
         <f t="shared" si="0"/>
@@ -31536,15 +31507,16 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D41" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E41" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F41" s="28">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-63.888888888888893</v>
       </c>
       <c r="G41" s="30">
         <f t="shared" si="4"/>
@@ -31562,7 +31534,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="20">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="B42" s="28">
         <f t="shared" si="0"/>
@@ -31573,15 +31545,16 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D42" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E42" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F42" s="28">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-63.888888888888893</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="4"/>
@@ -31599,7 +31572,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="20">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="B43" s="28">
         <f t="shared" si="0"/>
@@ -31610,7 +31583,7 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D43" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D43:E58" si="7">D42</f>
         <v>75.688767786860424</v>
       </c>
       <c r="E43" s="28">
@@ -31618,7 +31591,8 @@
         <v>75.688767786860424</v>
       </c>
       <c r="F43" s="28">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-63.888888888888893</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="4"/>
@@ -31636,7 +31610,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="20">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="B44" s="28">
         <f t="shared" si="0"/>
@@ -31655,7 +31629,8 @@
         <v>75.688767786860424</v>
       </c>
       <c r="F44" s="28">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-63.888888888888893</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="4"/>
@@ -31673,7 +31648,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="20">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="B45" s="28">
         <f t="shared" si="0"/>
@@ -31710,7 +31685,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="20">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="B46" s="28">
         <f t="shared" si="0"/>
@@ -31747,7 +31722,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="20">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="B47" s="28">
         <f t="shared" si="0"/>
@@ -31784,7 +31759,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="20">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="B48" s="28">
         <f t="shared" si="0"/>
@@ -31821,7 +31796,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="20">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="B49" s="28">
         <f t="shared" si="0"/>
@@ -31858,7 +31833,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="20">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="B50" s="28">
         <f t="shared" si="0"/>
@@ -31895,7 +31870,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="20">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="B51" s="28">
         <f t="shared" si="0"/>
@@ -31932,7 +31907,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="20">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="B52" s="28">
         <f t="shared" si="0"/>
@@ -31969,7 +31944,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="20">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="B53" s="28">
         <f t="shared" si="0"/>
@@ -32006,7 +31981,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="20">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="B54" s="28">
         <f t="shared" si="0"/>
@@ -32017,11 +31992,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D54" s="28">
-        <f t="shared" ref="D54:E69" si="8">D53</f>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E54" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F54" s="28">
@@ -32043,7 +32018,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="20">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="B55" s="28">
         <f t="shared" si="0"/>
@@ -32054,11 +32029,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D55" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E55" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F55" s="28">
@@ -32080,7 +32055,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="20">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="B56" s="28">
         <f t="shared" si="0"/>
@@ -32091,11 +32066,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D56" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E56" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F56" s="28">
@@ -32117,7 +32092,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="20">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="B57" s="28">
         <f t="shared" si="0"/>
@@ -32128,11 +32103,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D57" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E57" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F57" s="28">
@@ -32154,7 +32129,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="20">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B58" s="28">
         <f t="shared" si="0"/>
@@ -32165,11 +32140,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D58" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E58" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F58" s="28">
@@ -32191,7 +32166,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="20">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="B59" s="28">
         <f t="shared" si="0"/>
@@ -32202,7 +32177,7 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D59" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D59:E74" si="8">D58</f>
         <v>75.688767786860424</v>
       </c>
       <c r="E59" s="28">
@@ -32228,7 +32203,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="20">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="B60" s="28">
         <f t="shared" si="0"/>
@@ -32265,7 +32240,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="20">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="B61" s="28">
         <f t="shared" si="0"/>
@@ -32302,7 +32277,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="20">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="B62" s="28">
         <f t="shared" si="0"/>
@@ -32339,7 +32314,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="20">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="B63" s="28">
         <f t="shared" si="0"/>
@@ -32376,7 +32351,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="20">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="B64" s="28">
         <f t="shared" si="0"/>
@@ -32413,7 +32388,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="20">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="B65" s="28">
         <f t="shared" si="0"/>
@@ -32450,7 +32425,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="20">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="B66" s="28">
         <f t="shared" si="0"/>
@@ -32487,7 +32462,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="20">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="B67" s="28">
         <f t="shared" si="0"/>
@@ -32524,7 +32499,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="20">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="B68" s="28">
         <f t="shared" si="0"/>
@@ -32561,7 +32536,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="20">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="B69" s="28">
         <f t="shared" si="0"/>
@@ -32598,7 +32573,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="20">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="B70" s="28">
         <f t="shared" si="0"/>
@@ -32609,11 +32584,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D70" s="28">
-        <f t="shared" ref="D70:E80" si="9">D69</f>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E70" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F70" s="28">
@@ -32635,7 +32610,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="20">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="B71" s="28">
         <f t="shared" si="0"/>
@@ -32646,11 +32621,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D71" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E71" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F71" s="28">
@@ -32672,7 +32647,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="20">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="B72" s="28">
         <f t="shared" si="0"/>
@@ -32683,11 +32658,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D72" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E72" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F72" s="28">
@@ -32709,7 +32684,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="20">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="B73" s="28">
         <f t="shared" si="0"/>
@@ -32720,11 +32695,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D73" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E73" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F73" s="28">
@@ -32746,7 +32721,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="20">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="B74" s="28">
         <f t="shared" si="0"/>
@@ -32757,11 +32732,11 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D74" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="E74" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>75.688767786860424</v>
       </c>
       <c r="F74" s="28">
@@ -32783,7 +32758,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="20">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="B75" s="28">
         <f t="shared" si="0"/>
@@ -32794,7 +32769,7 @@
         <v>666.06115652437177</v>
       </c>
       <c r="D75" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D75:E85" si="9">D74</f>
         <v>75.688767786860424</v>
       </c>
       <c r="E75" s="28">
@@ -32820,7 +32795,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="20">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="B76" s="28">
         <f t="shared" si="0"/>
@@ -32857,7 +32832,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="20">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="B77" s="28">
         <f t="shared" si="0"/>
@@ -32894,7 +32869,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="20">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="B78" s="28">
         <f t="shared" si="0"/>
@@ -32931,7 +32906,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="20">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="B79" s="28">
         <f t="shared" si="0"/>
@@ -32968,14 +32943,14 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="20">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="B80" s="28">
-        <f t="shared" ref="B80" si="10">((C80*1000*16)/3600)*0.85</f>
+        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C80" s="28">
-        <f t="shared" ref="C80" si="11">D80*8.8</f>
+        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D80" s="28">
@@ -32990,7 +32965,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="30">
-        <f t="shared" ref="G80" si="12">-B80*0.255*0.1</f>
+        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H80" s="23">
@@ -33004,16 +32979,201 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="20"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
+      <c r="A81" s="20">
+        <v>2096</v>
+      </c>
+      <c r="B81" s="28">
+        <f t="shared" si="0"/>
+        <v>2516.231035758738</v>
+      </c>
+      <c r="C81" s="28">
+        <f t="shared" si="1"/>
+        <v>666.06115652437177</v>
+      </c>
+      <c r="D81" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="E81" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="F81" s="28">
+        <v>0</v>
+      </c>
+      <c r="G81" s="30">
+        <f t="shared" si="4"/>
+        <v>-64.163891411847814</v>
+      </c>
+      <c r="H81" s="23">
+        <v>0</v>
+      </c>
+      <c r="I81" s="28">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="20">
+        <v>2097</v>
+      </c>
+      <c r="B82" s="28">
+        <f t="shared" si="0"/>
+        <v>2516.231035758738</v>
+      </c>
+      <c r="C82" s="28">
+        <f t="shared" si="1"/>
+        <v>666.06115652437177</v>
+      </c>
+      <c r="D82" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="E82" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="F82" s="28">
+        <v>0</v>
+      </c>
+      <c r="G82" s="30">
+        <f t="shared" si="4"/>
+        <v>-64.163891411847814</v>
+      </c>
+      <c r="H82" s="23">
+        <v>0</v>
+      </c>
+      <c r="I82" s="28">
+        <v>1000</v>
+      </c>
+      <c r="J82" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="20">
+        <v>2098</v>
+      </c>
+      <c r="B83" s="28">
+        <f t="shared" si="0"/>
+        <v>2516.231035758738</v>
+      </c>
+      <c r="C83" s="28">
+        <f t="shared" si="1"/>
+        <v>666.06115652437177</v>
+      </c>
+      <c r="D83" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="E83" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="F83" s="28">
+        <v>0</v>
+      </c>
+      <c r="G83" s="30">
+        <f t="shared" si="4"/>
+        <v>-64.163891411847814</v>
+      </c>
+      <c r="H83" s="23">
+        <v>0</v>
+      </c>
+      <c r="I83" s="28">
+        <v>1000</v>
+      </c>
+      <c r="J83" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="20">
+        <v>2099</v>
+      </c>
+      <c r="B84" s="28">
+        <f t="shared" si="0"/>
+        <v>2516.231035758738</v>
+      </c>
+      <c r="C84" s="28">
+        <f t="shared" si="1"/>
+        <v>666.06115652437177</v>
+      </c>
+      <c r="D84" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="E84" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="F84" s="28">
+        <v>0</v>
+      </c>
+      <c r="G84" s="30">
+        <f t="shared" si="4"/>
+        <v>-64.163891411847814</v>
+      </c>
+      <c r="H84" s="23">
+        <v>0</v>
+      </c>
+      <c r="I84" s="28">
+        <v>1000</v>
+      </c>
+      <c r="J84" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="20">
+        <v>2100</v>
+      </c>
+      <c r="B85" s="28">
+        <f t="shared" ref="B85" si="10">((C85*1000*16)/3600)*0.85</f>
+        <v>2516.231035758738</v>
+      </c>
+      <c r="C85" s="28">
+        <f t="shared" ref="C85" si="11">D85*8.8</f>
+        <v>666.06115652437177</v>
+      </c>
+      <c r="D85" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="E85" s="28">
+        <f t="shared" si="9"/>
+        <v>75.688767786860424</v>
+      </c>
+      <c r="F85" s="28">
+        <v>0</v>
+      </c>
+      <c r="G85" s="30">
+        <f t="shared" ref="G85" si="12">-B85*0.255*0.1</f>
+        <v>-64.163891411847814</v>
+      </c>
+      <c r="H85" s="23">
+        <v>0</v>
+      </c>
+      <c r="I85" s="28">
+        <v>1000</v>
+      </c>
+      <c r="J85" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="20"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/forestry.xlsx
+++ b/data/forestry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29816"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuigalwayie-my.sharepoint.com/personal/0121302s_universityofgalway_ie/Documents/03. RESEARCH/01. LIVE PROEJCTS/CAMG Modelling/18. MODEL DEVELOPMENT/INTERFACE/Revisions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9082FF05-0961-4BE8-A135-CC1A70739F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{146CF843-14FC-4405-AE0B-020E7D8BC3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="1" xr2:uid="{B86DC117-0B88-41ED-9D24-CA48C208C5B6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="4" xr2:uid="{B86DC117-0B88-41ED-9D24-CA48C208C5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="existing_forest" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="53">
   <si>
     <t>metric</t>
   </si>
@@ -265,9 +265,6 @@
     <t>grass_dry_matter</t>
   </si>
   <si>
-    <t>n20_emissions</t>
-  </si>
-  <si>
     <t>nh3_emissions</t>
   </si>
   <si>
@@ -386,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,13 +459,19 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -831,8 +834,8 @@
   <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -4157,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="7">
-        <v>-937.01876373956259</v>
+        <v>-937.01876373956304</v>
       </c>
       <c r="P46" s="7">
         <v>-646.76361696369747</v>
@@ -7165,9 +7168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2870A7D-6154-46B5-BE12-DA2643C3FE45}">
   <dimension ref="A1:BE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11:AX11"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AA38" sqref="AA38"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -12889,7 +12892,7 @@
         <v>-13.312137830376207</v>
       </c>
       <c r="W38" s="7">
-        <v>-3.7251526050561727</v>
+        <v>-3.7251526050561701</v>
       </c>
       <c r="X38" s="7">
         <v>-2.331779552157669</v>
@@ -14421,19 +14424,19 @@
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <v>-247.57861439309863</v>
+        <v>-247.578614393099</v>
       </c>
       <c r="H48" s="9">
-        <v>-293.27510494747594</v>
+        <v>-293.275104947476</v>
       </c>
       <c r="I48" s="9">
-        <v>-272.36374622487989</v>
+        <v>-272.36374622488</v>
       </c>
       <c r="J48" s="9">
         <v>-318.0602367792572</v>
       </c>
       <c r="K48" s="9">
-        <v>-216.02613121320485</v>
+        <v>-216.02613121320499</v>
       </c>
       <c r="L48" s="9">
         <v>-303.90632948828232</v>
@@ -21074,7 +21077,7 @@
   <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23555,7 +23558,7 @@
         <v>-0.12629806259635165</v>
       </c>
       <c r="N45" s="7">
-        <v>-671.73235166794541</v>
+        <v>-671.73235166794495</v>
       </c>
       <c r="O45" s="7">
         <v>0</v>
@@ -25403,7 +25406,7 @@
         <v>-0.12629806259635165</v>
       </c>
       <c r="N78" s="7">
-        <v>-775.07579038609106</v>
+        <v>-775.07579038609094</v>
       </c>
       <c r="O78" s="7">
         <v>0</v>
@@ -25819,8 +25822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34836405-4481-4BAF-9772-C50480C7C417}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25848,22 +25851,22 @@
         <v>33</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="M1" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>7</v>
@@ -25968,10 +25971,10 @@
         <v>41</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
@@ -26875,9 +26878,9 @@
       <c r="O20" s="28">
         <v>0</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19">
@@ -31043,7 +31046,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -31054,39 +31057,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -31104,13 +31107,13 @@
       <c r="F2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -31118,39 +31121,39 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="23"/>
@@ -31164,7 +31167,7 @@
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="21">
+      <c r="A5" s="35">
         <v>2020</v>
       </c>
       <c r="B5" s="23">
@@ -31196,7 +31199,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="21">
+      <c r="A6" s="35">
         <v>2021</v>
       </c>
       <c r="B6" s="23">
@@ -31228,7 +31231,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21">
+      <c r="A7" s="35">
         <v>2022</v>
       </c>
       <c r="B7" s="23">
@@ -31260,7 +31263,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="21">
+      <c r="A8" s="35">
         <v>2023</v>
       </c>
       <c r="B8" s="23">
@@ -31292,7 +31295,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="21">
+      <c r="A9" s="35">
         <v>2024</v>
       </c>
       <c r="B9" s="23">
@@ -31324,7 +31327,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="20">
+      <c r="A10" s="23">
         <v>2025</v>
       </c>
       <c r="B10" s="23">
@@ -31356,7 +31359,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="20">
+      <c r="A11" s="23">
         <v>2026</v>
       </c>
       <c r="B11" s="23">
@@ -31388,7 +31391,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="20">
+      <c r="A12" s="23">
         <v>2027</v>
       </c>
       <c r="B12" s="23">
@@ -31420,7 +31423,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="20">
+      <c r="A13" s="23">
         <v>2028</v>
       </c>
       <c r="B13" s="23">
@@ -31452,7 +31455,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="20">
+      <c r="A14" s="23">
         <v>2029</v>
       </c>
       <c r="B14" s="23">
@@ -31484,7 +31487,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="20">
+      <c r="A15" s="23">
         <v>2030</v>
       </c>
       <c r="B15" s="23">
@@ -31516,7 +31519,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="20">
+      <c r="A16" s="23">
         <v>2031</v>
       </c>
       <c r="B16" s="23">
@@ -31548,7 +31551,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="20">
+      <c r="A17" s="23">
         <v>2032</v>
       </c>
       <c r="B17" s="23">
@@ -31580,7 +31583,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="20">
+      <c r="A18" s="23">
         <v>2033</v>
       </c>
       <c r="B18" s="23">
@@ -31612,7 +31615,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="20">
+      <c r="A19" s="23">
         <v>2034</v>
       </c>
       <c r="B19" s="23">
@@ -31644,7 +31647,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="20">
+      <c r="A20" s="23">
         <v>2035</v>
       </c>
       <c r="B20" s="28">
@@ -31683,7 +31686,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="20">
+      <c r="A21" s="23">
         <v>2036</v>
       </c>
       <c r="B21" s="28">
@@ -31722,7 +31725,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="20">
+      <c r="A22" s="23">
         <v>2037</v>
       </c>
       <c r="B22" s="28">
@@ -31761,7 +31764,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="20">
+      <c r="A23" s="23">
         <v>2038</v>
       </c>
       <c r="B23" s="28">
@@ -31800,7 +31803,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="20">
+      <c r="A24" s="23">
         <v>2039</v>
       </c>
       <c r="B24" s="28">
@@ -31839,7 +31842,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="20">
+      <c r="A25" s="23">
         <v>2040</v>
       </c>
       <c r="B25" s="28">
@@ -31877,7 +31880,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="20">
+      <c r="A26" s="23">
         <v>2041</v>
       </c>
       <c r="B26" s="28">
@@ -31915,7 +31918,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="20">
+      <c r="A27" s="23">
         <v>2042</v>
       </c>
       <c r="B27" s="28">
@@ -31953,7 +31956,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="20">
+      <c r="A28" s="23">
         <v>2043</v>
       </c>
       <c r="B28" s="28">
@@ -31991,7 +31994,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="20">
+      <c r="A29" s="23">
         <v>2044</v>
       </c>
       <c r="B29" s="28">
@@ -32029,7 +32032,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="20">
+      <c r="A30" s="23">
         <v>2045</v>
       </c>
       <c r="B30" s="28">
@@ -32067,7 +32070,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="20">
+      <c r="A31" s="23">
         <v>2046</v>
       </c>
       <c r="B31" s="28">
@@ -32105,7 +32108,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="20">
+      <c r="A32" s="23">
         <v>2047</v>
       </c>
       <c r="B32" s="28">
@@ -32143,7 +32146,7 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="20">
+      <c r="A33" s="23">
         <v>2048</v>
       </c>
       <c r="B33" s="28">
@@ -32181,7 +32184,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="20">
+      <c r="A34" s="23">
         <v>2049</v>
       </c>
       <c r="B34" s="28">
@@ -32219,7 +32222,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="20">
+      <c r="A35" s="23">
         <v>2050</v>
       </c>
       <c r="B35" s="28">
@@ -32257,7 +32260,7 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="20">
+      <c r="A36" s="23">
         <v>2051</v>
       </c>
       <c r="B36" s="28">
@@ -32295,7 +32298,7 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="20">
+      <c r="A37" s="23">
         <v>2052</v>
       </c>
       <c r="B37" s="28">
@@ -32333,7 +32336,7 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="20">
+      <c r="A38" s="23">
         <v>2053</v>
       </c>
       <c r="B38" s="28">
@@ -32371,7 +32374,7 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="20">
+      <c r="A39" s="23">
         <v>2054</v>
       </c>
       <c r="B39" s="28">
@@ -32409,7 +32412,7 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="20">
+      <c r="A40" s="23">
         <v>2055</v>
       </c>
       <c r="B40" s="28">
@@ -32447,7 +32450,7 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="20">
+      <c r="A41" s="23">
         <v>2056</v>
       </c>
       <c r="B41" s="28">
@@ -32485,7 +32488,7 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="20">
+      <c r="A42" s="23">
         <v>2057</v>
       </c>
       <c r="B42" s="28">
@@ -32523,7 +32526,7 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="20">
+      <c r="A43" s="23">
         <v>2058</v>
       </c>
       <c r="B43" s="28">
@@ -32561,7 +32564,7 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="20">
+      <c r="A44" s="23">
         <v>2059</v>
       </c>
       <c r="B44" s="28">
@@ -32599,7 +32602,7 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="20">
+      <c r="A45" s="23">
         <v>2060</v>
       </c>
       <c r="B45" s="28">
@@ -32636,7 +32639,7 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="20">
+      <c r="A46" s="23">
         <v>2061</v>
       </c>
       <c r="B46" s="28">
@@ -32673,7 +32676,7 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="20">
+      <c r="A47" s="23">
         <v>2062</v>
       </c>
       <c r="B47" s="28">
@@ -32710,7 +32713,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="20">
+      <c r="A48" s="23">
         <v>2063</v>
       </c>
       <c r="B48" s="28">
@@ -32747,7 +32750,7 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="20">
+      <c r="A49" s="23">
         <v>2064</v>
       </c>
       <c r="B49" s="28">
@@ -32784,7 +32787,7 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="20">
+      <c r="A50" s="23">
         <v>2065</v>
       </c>
       <c r="B50" s="28">
@@ -32821,7 +32824,7 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="20">
+      <c r="A51" s="23">
         <v>2066</v>
       </c>
       <c r="B51" s="28">
@@ -32858,7 +32861,7 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="20">
+      <c r="A52" s="23">
         <v>2067</v>
       </c>
       <c r="B52" s="28">
@@ -32895,7 +32898,7 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="20">
+      <c r="A53" s="23">
         <v>2068</v>
       </c>
       <c r="B53" s="28">
@@ -32932,7 +32935,7 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="20">
+      <c r="A54" s="23">
         <v>2069</v>
       </c>
       <c r="B54" s="28">
@@ -32969,7 +32972,7 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="20">
+      <c r="A55" s="23">
         <v>2070</v>
       </c>
       <c r="B55" s="28">
@@ -33006,7 +33009,7 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="20">
+      <c r="A56" s="23">
         <v>2071</v>
       </c>
       <c r="B56" s="28">
@@ -33043,7 +33046,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="20">
+      <c r="A57" s="23">
         <v>2072</v>
       </c>
       <c r="B57" s="28">
@@ -33080,7 +33083,7 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="20">
+      <c r="A58" s="23">
         <v>2073</v>
       </c>
       <c r="B58" s="28">
@@ -33117,7 +33120,7 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="20">
+      <c r="A59" s="23">
         <v>2074</v>
       </c>
       <c r="B59" s="28">
@@ -33154,7 +33157,7 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="20">
+      <c r="A60" s="23">
         <v>2075</v>
       </c>
       <c r="B60" s="28">
@@ -33191,7 +33194,7 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="20">
+      <c r="A61" s="23">
         <v>2076</v>
       </c>
       <c r="B61" s="28">
@@ -33228,7 +33231,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="20">
+      <c r="A62" s="23">
         <v>2077</v>
       </c>
       <c r="B62" s="28">
@@ -33265,7 +33268,7 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="20">
+      <c r="A63" s="23">
         <v>2078</v>
       </c>
       <c r="B63" s="28">
@@ -33302,7 +33305,7 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="20">
+      <c r="A64" s="23">
         <v>2079</v>
       </c>
       <c r="B64" s="28">
@@ -33339,7 +33342,7 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="20">
+      <c r="A65" s="23">
         <v>2080</v>
       </c>
       <c r="B65" s="28">
@@ -33376,7 +33379,7 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="20">
+      <c r="A66" s="23">
         <v>2081</v>
       </c>
       <c r="B66" s="28">
@@ -33413,7 +33416,7 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="20">
+      <c r="A67" s="23">
         <v>2082</v>
       </c>
       <c r="B67" s="28">
@@ -33450,7 +33453,7 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="20">
+      <c r="A68" s="23">
         <v>2083</v>
       </c>
       <c r="B68" s="28">
@@ -33487,7 +33490,7 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="20">
+      <c r="A69" s="23">
         <v>2084</v>
       </c>
       <c r="B69" s="28">
@@ -33524,7 +33527,7 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="20">
+      <c r="A70" s="23">
         <v>2085</v>
       </c>
       <c r="B70" s="28">
@@ -33561,7 +33564,7 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="20">
+      <c r="A71" s="23">
         <v>2086</v>
       </c>
       <c r="B71" s="28">
@@ -33598,7 +33601,7 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="20">
+      <c r="A72" s="23">
         <v>2087</v>
       </c>
       <c r="B72" s="28">
@@ -33635,7 +33638,7 @@
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="20">
+      <c r="A73" s="23">
         <v>2088</v>
       </c>
       <c r="B73" s="28">
@@ -33672,7 +33675,7 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="20">
+      <c r="A74" s="23">
         <v>2089</v>
       </c>
       <c r="B74" s="28">
@@ -33709,7 +33712,7 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="20">
+      <c r="A75" s="23">
         <v>2090</v>
       </c>
       <c r="B75" s="28">
@@ -33746,7 +33749,7 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="20">
+      <c r="A76" s="23">
         <v>2091</v>
       </c>
       <c r="B76" s="28">
@@ -33783,7 +33786,7 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="20">
+      <c r="A77" s="23">
         <v>2092</v>
       </c>
       <c r="B77" s="28">
@@ -33820,7 +33823,7 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="20">
+      <c r="A78" s="23">
         <v>2093</v>
       </c>
       <c r="B78" s="28">
@@ -33857,7 +33860,7 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="20">
+      <c r="A79" s="23">
         <v>2094</v>
       </c>
       <c r="B79" s="28">
@@ -33894,7 +33897,7 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="20">
+      <c r="A80" s="23">
         <v>2095</v>
       </c>
       <c r="B80" s="28">
@@ -33931,7 +33934,7 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="20">
+      <c r="A81" s="23">
         <v>2096</v>
       </c>
       <c r="B81" s="28">
@@ -33968,7 +33971,7 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="20">
+      <c r="A82" s="23">
         <v>2097</v>
       </c>
       <c r="B82" s="28">
@@ -34005,7 +34008,7 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="20">
+      <c r="A83" s="23">
         <v>2098</v>
       </c>
       <c r="B83" s="28">
@@ -34042,7 +34045,7 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="20">
+      <c r="A84" s="23">
         <v>2099</v>
       </c>
       <c r="B84" s="28">
@@ -34079,7 +34082,7 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="20">
+      <c r="A85" s="23">
         <v>2100</v>
       </c>
       <c r="B85" s="28">

--- a/data/forestry.xlsx
+++ b/data/forestry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuigalwayie-my.sharepoint.com/personal/0121302s_universityofgalway_ie/Documents/03. RESEARCH/01. LIVE PROEJCTS/CAMG Modelling/18. MODEL DEVELOPMENT/INTERFACE/Revisions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{146CF843-14FC-4405-AE0B-020E7D8BC3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE4BA6C-925A-4942-815E-5B5F2AD55193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="4" xr2:uid="{B86DC117-0B88-41ED-9D24-CA48C208C5B6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{B86DC117-0B88-41ED-9D24-CA48C208C5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="existing_forest" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="52">
   <si>
     <t>metric</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>GWh</t>
-  </si>
-  <si>
-    <t>kha</t>
   </si>
   <si>
     <t>kt</t>
@@ -834,7 +831,7 @@
   <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -21077,7 +21074,7 @@
   <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21202,43 +21199,43 @@
         <v>39</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -21565,7 +21562,7 @@
         <v>1100</v>
       </c>
       <c r="C10" s="7">
-        <v>21.6666666666667</v>
+        <v>21666.666666666701</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -21621,7 +21618,7 @@
         <v>2050</v>
       </c>
       <c r="C11" s="7">
-        <v>43.333333333333336</v>
+        <v>43333.333333333299</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
@@ -21677,7 +21674,7 @@
         <v>3000</v>
       </c>
       <c r="C12" s="7">
-        <v>65</v>
+        <v>65000</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
@@ -21733,7 +21730,7 @@
         <v>3950</v>
       </c>
       <c r="C13" s="7">
-        <v>86.666666666666671</v>
+        <v>86666.666666666701</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -21789,7 +21786,7 @@
         <v>4900</v>
       </c>
       <c r="C14" s="7">
-        <v>108.33333333333334</v>
+        <v>108333.33333333299</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -21845,7 +21842,7 @@
         <v>5700</v>
       </c>
       <c r="C15" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -21901,7 +21898,7 @@
         <v>5700</v>
       </c>
       <c r="C16" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -21957,7 +21954,7 @@
         <v>5700</v>
       </c>
       <c r="C17" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
@@ -22013,7 +22010,7 @@
         <v>5700</v>
       </c>
       <c r="C18" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -22069,7 +22066,7 @@
         <v>5700</v>
       </c>
       <c r="C19" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
@@ -22125,7 +22122,7 @@
         <v>5700</v>
       </c>
       <c r="C20" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
@@ -22181,7 +22178,7 @@
         <v>5700</v>
       </c>
       <c r="C21" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -22237,7 +22234,7 @@
         <v>5700</v>
       </c>
       <c r="C22" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -22293,7 +22290,7 @@
         <v>5700</v>
       </c>
       <c r="C23" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
@@ -22349,7 +22346,7 @@
         <v>5700</v>
       </c>
       <c r="C24" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
@@ -22405,7 +22402,7 @@
         <v>5700</v>
       </c>
       <c r="C25" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
@@ -22461,7 +22458,7 @@
         <v>5700</v>
       </c>
       <c r="C26" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -22517,7 +22514,7 @@
         <v>5700</v>
       </c>
       <c r="C27" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
@@ -22573,7 +22570,7 @@
         <v>5700</v>
       </c>
       <c r="C28" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
@@ -22629,7 +22626,7 @@
         <v>5700</v>
       </c>
       <c r="C29" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D29" s="7">
         <v>0</v>
@@ -22685,7 +22682,7 @@
         <v>5700</v>
       </c>
       <c r="C30" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D30" s="7">
         <v>0</v>
@@ -22741,7 +22738,7 @@
         <v>5700</v>
       </c>
       <c r="C31" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D31" s="7">
         <v>0</v>
@@ -22797,7 +22794,7 @@
         <v>5700</v>
       </c>
       <c r="C32" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
@@ -22853,7 +22850,7 @@
         <v>5700</v>
       </c>
       <c r="C33" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D33" s="7">
         <v>0</v>
@@ -22909,7 +22906,7 @@
         <v>5700</v>
       </c>
       <c r="C34" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D34" s="7">
         <v>0</v>
@@ -22965,7 +22962,7 @@
         <v>5700</v>
       </c>
       <c r="C35" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
@@ -23021,7 +23018,7 @@
         <v>5700</v>
       </c>
       <c r="C36" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D36" s="7">
         <v>0</v>
@@ -23077,7 +23074,7 @@
         <v>5700</v>
       </c>
       <c r="C37" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
@@ -23133,7 +23130,7 @@
         <v>5700</v>
       </c>
       <c r="C38" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D38" s="7">
         <v>0</v>
@@ -23189,7 +23186,7 @@
         <v>5700</v>
       </c>
       <c r="C39" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
@@ -23245,7 +23242,7 @@
         <v>5700</v>
       </c>
       <c r="C40" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -23301,7 +23298,7 @@
         <v>5700</v>
       </c>
       <c r="C41" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -23357,7 +23354,7 @@
         <v>5700</v>
       </c>
       <c r="C42" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D42" s="7">
         <v>0</v>
@@ -23413,7 +23410,7 @@
         <v>5700</v>
       </c>
       <c r="C43" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D43" s="7">
         <v>0</v>
@@ -23469,7 +23466,7 @@
         <v>5700</v>
       </c>
       <c r="C44" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D44" s="7">
         <v>0</v>
@@ -23525,7 +23522,7 @@
         <v>5700</v>
       </c>
       <c r="C45" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D45" s="7">
         <v>0</v>
@@ -23581,7 +23578,7 @@
         <v>5700</v>
       </c>
       <c r="C46" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
@@ -23637,7 +23634,7 @@
         <v>5700</v>
       </c>
       <c r="C47" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D47" s="7">
         <v>0</v>
@@ -23693,7 +23690,7 @@
         <v>5700</v>
       </c>
       <c r="C48" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D48" s="7">
         <v>0</v>
@@ -23749,7 +23746,7 @@
         <v>5700</v>
       </c>
       <c r="C49" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D49" s="7">
         <v>0</v>
@@ -23805,7 +23802,7 @@
         <v>5700</v>
       </c>
       <c r="C50" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
@@ -23861,7 +23858,7 @@
         <v>5700</v>
       </c>
       <c r="C51" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
@@ -23917,7 +23914,7 @@
         <v>5700</v>
       </c>
       <c r="C52" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D52" s="7">
         <v>0</v>
@@ -23973,7 +23970,7 @@
         <v>5700</v>
       </c>
       <c r="C53" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D53" s="7">
         <v>0</v>
@@ -24029,7 +24026,7 @@
         <v>5700</v>
       </c>
       <c r="C54" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D54" s="7">
         <v>0</v>
@@ -24085,7 +24082,7 @@
         <v>5700</v>
       </c>
       <c r="C55" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -24141,7 +24138,7 @@
         <v>5700</v>
       </c>
       <c r="C56" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D56" s="7">
         <v>0</v>
@@ -24197,7 +24194,7 @@
         <v>5700</v>
       </c>
       <c r="C57" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D57" s="7">
         <v>0</v>
@@ -24253,7 +24250,7 @@
         <v>5700</v>
       </c>
       <c r="C58" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -24309,7 +24306,7 @@
         <v>5700</v>
       </c>
       <c r="C59" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D59" s="7">
         <v>0</v>
@@ -24365,7 +24362,7 @@
         <v>5700</v>
       </c>
       <c r="C60" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D60" s="7">
         <v>0</v>
@@ -24421,7 +24418,7 @@
         <v>5700</v>
       </c>
       <c r="C61" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D61" s="7">
         <v>0</v>
@@ -24477,7 +24474,7 @@
         <v>5700</v>
       </c>
       <c r="C62" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D62" s="7">
         <v>0</v>
@@ -24533,7 +24530,7 @@
         <v>5700</v>
       </c>
       <c r="C63" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D63" s="7">
         <v>0</v>
@@ -24589,7 +24586,7 @@
         <v>5700</v>
       </c>
       <c r="C64" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D64" s="7">
         <v>0</v>
@@ -24645,7 +24642,7 @@
         <v>5700</v>
       </c>
       <c r="C65" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D65" s="7">
         <v>0</v>
@@ -24701,7 +24698,7 @@
         <v>5700</v>
       </c>
       <c r="C66" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D66" s="7">
         <v>0</v>
@@ -24757,7 +24754,7 @@
         <v>5700</v>
       </c>
       <c r="C67" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D67" s="7">
         <v>0</v>
@@ -24813,7 +24810,7 @@
         <v>5700</v>
       </c>
       <c r="C68" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D68" s="7">
         <v>0</v>
@@ -24869,7 +24866,7 @@
         <v>5700</v>
       </c>
       <c r="C69" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D69" s="7">
         <v>0</v>
@@ -24925,7 +24922,7 @@
         <v>5700</v>
       </c>
       <c r="C70" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D70" s="7">
         <v>0</v>
@@ -24981,7 +24978,7 @@
         <v>5700</v>
       </c>
       <c r="C71" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D71" s="7">
         <v>0</v>
@@ -25037,7 +25034,7 @@
         <v>5700</v>
       </c>
       <c r="C72" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D72" s="7">
         <v>0</v>
@@ -25093,7 +25090,7 @@
         <v>5700</v>
       </c>
       <c r="C73" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D73" s="7">
         <v>0</v>
@@ -25149,7 +25146,7 @@
         <v>5700</v>
       </c>
       <c r="C74" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D74" s="7">
         <v>0</v>
@@ -25205,7 +25202,7 @@
         <v>5700</v>
       </c>
       <c r="C75" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D75" s="7">
         <v>0</v>
@@ -25261,7 +25258,7 @@
         <v>5700</v>
       </c>
       <c r="C76" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D76" s="7">
         <v>0</v>
@@ -25317,7 +25314,7 @@
         <v>5700</v>
       </c>
       <c r="C77" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D77" s="7">
         <v>0</v>
@@ -25373,7 +25370,7 @@
         <v>5700</v>
       </c>
       <c r="C78" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D78" s="7">
         <v>0</v>
@@ -25429,7 +25426,7 @@
         <v>5700</v>
       </c>
       <c r="C79" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D79" s="7">
         <v>0</v>
@@ -25485,7 +25482,7 @@
         <v>5700</v>
       </c>
       <c r="C80" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D80" s="7">
         <v>0</v>
@@ -25541,7 +25538,7 @@
         <v>5700</v>
       </c>
       <c r="C81" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D81" s="7">
         <v>0</v>
@@ -25597,7 +25594,7 @@
         <v>5700</v>
       </c>
       <c r="C82" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D82" s="7">
         <v>0</v>
@@ -25653,7 +25650,7 @@
         <v>5700</v>
       </c>
       <c r="C83" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D83" s="7">
         <v>0</v>
@@ -25709,7 +25706,7 @@
         <v>5700</v>
       </c>
       <c r="C84" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D84" s="7">
         <v>0</v>
@@ -25765,7 +25762,7 @@
         <v>5700</v>
       </c>
       <c r="C85" s="7">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="D85" s="7">
         <v>0</v>
@@ -25822,8 +25819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34836405-4481-4BAF-9772-C50480C7C417}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25836,7 +25833,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>1</v>
@@ -25854,19 +25851,19 @@
         <v>34</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="M1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>7</v>
@@ -25938,43 +25935,43 @@
         <v>39</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
@@ -26519,57 +26516,45 @@
         <v>2030</v>
       </c>
       <c r="B15" s="26">
-        <f>B20/6</f>
         <v>166.66666666666666</v>
       </c>
       <c r="C15" s="26">
-        <f t="shared" ref="C15:O15" si="0">C20/6</f>
         <v>52.5</v>
       </c>
       <c r="D15" s="26">
-        <f t="shared" si="0"/>
-        <v>5.833333333333333</v>
+        <v>5833.3333333333303</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="26">
         <v>0</v>
       </c>
       <c r="G15" s="27">
-        <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
       <c r="H15" s="27">
-        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="I15" s="27">
-        <f t="shared" si="0"/>
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="J15" s="27">
-        <f t="shared" si="0"/>
         <v>6.3333333333333339E-2</v>
       </c>
       <c r="K15" s="27">
-        <f t="shared" si="0"/>
         <v>1.6666666666666668E-3</v>
       </c>
       <c r="L15" s="26">
-        <f>M15</f>
         <v>-33.833333333333336</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" si="0"/>
         <v>-33.833333333333336</v>
       </c>
       <c r="N15" s="26">
         <v>0</v>
       </c>
       <c r="O15" s="26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P15" s="23"/>
@@ -26582,57 +26567,45 @@
         <v>2031</v>
       </c>
       <c r="B16" s="26">
-        <f>B15+(B$20/6)</f>
         <v>333.33333333333331</v>
       </c>
       <c r="C16" s="26">
-        <f t="shared" ref="C16:O19" si="1">C15+(C$20/6)</f>
         <v>105</v>
       </c>
       <c r="D16" s="26">
-        <f t="shared" si="1"/>
-        <v>11.666666666666666</v>
+        <v>11666.666666666701</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="26">
         <v>0</v>
       </c>
       <c r="G16" s="27">
-        <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
       <c r="H16" s="27">
-        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="I16" s="27">
-        <f t="shared" si="1"/>
         <v>9.3333333333333338E-2</v>
       </c>
       <c r="J16" s="27">
-        <f t="shared" si="1"/>
         <v>0.12666666666666668</v>
       </c>
       <c r="K16" s="27">
-        <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="L16" s="26">
-        <f t="shared" ref="L16:L19" si="2">M16</f>
         <v>-67.666666666666671</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" si="1"/>
         <v>-67.666666666666671</v>
       </c>
       <c r="N16" s="26">
         <v>0</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="23"/>
@@ -26645,57 +26618,45 @@
         <v>2032</v>
       </c>
       <c r="B17" s="26">
-        <f t="shared" ref="B17:B19" si="3">B16+(B$20/6)</f>
         <v>500</v>
       </c>
       <c r="C17" s="26">
-        <f t="shared" si="1"/>
         <v>157.5</v>
       </c>
       <c r="D17" s="26">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" s="26">
         <v>0</v>
       </c>
       <c r="G17" s="27">
-        <f t="shared" si="1"/>
         <v>1.59</v>
       </c>
       <c r="H17" s="27">
-        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J17" s="27">
-        <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
       <c r="K17" s="27">
-        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L17" s="26">
-        <f t="shared" si="2"/>
         <v>-101.5</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="1"/>
         <v>-101.5</v>
       </c>
       <c r="N17" s="26">
         <v>0</v>
       </c>
       <c r="O17" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="23"/>
@@ -26708,57 +26669,45 @@
         <v>2033</v>
       </c>
       <c r="B18" s="26">
-        <f t="shared" si="3"/>
         <v>666.66666666666663</v>
       </c>
       <c r="C18" s="26">
-        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="D18" s="26">
-        <f t="shared" si="1"/>
-        <v>23.333333333333332</v>
+        <v>23333.333333333299</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="26">
         <v>0</v>
       </c>
       <c r="G18" s="27">
-        <f t="shared" si="1"/>
         <v>2.12</v>
       </c>
       <c r="H18" s="27">
-        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="I18" s="27">
-        <f t="shared" si="1"/>
         <v>0.18666666666666668</v>
       </c>
       <c r="J18" s="27">
-        <f t="shared" si="1"/>
         <v>0.25333333333333335</v>
       </c>
       <c r="K18" s="27">
-        <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="L18" s="26">
-        <f t="shared" si="2"/>
         <v>-135.33333333333334</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" si="1"/>
         <v>-135.33333333333334</v>
       </c>
       <c r="N18" s="26">
         <v>0</v>
       </c>
       <c r="O18" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="23"/>
@@ -26771,57 +26720,45 @@
         <v>2034</v>
       </c>
       <c r="B19" s="26">
-        <f t="shared" si="3"/>
         <v>833.33333333333326</v>
       </c>
       <c r="C19" s="26">
-        <f t="shared" si="1"/>
         <v>262.5</v>
       </c>
       <c r="D19" s="26">
-        <f t="shared" si="1"/>
-        <v>29.166666666666664</v>
+        <v>29166.666666666701</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19" s="26">
         <v>0</v>
       </c>
       <c r="G19" s="27">
-        <f t="shared" si="1"/>
         <v>2.6500000000000004</v>
       </c>
       <c r="H19" s="27">
-        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I19" s="27">
-        <f t="shared" si="1"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="J19" s="27">
-        <f t="shared" si="1"/>
         <v>0.31666666666666671</v>
       </c>
       <c r="K19" s="27">
-        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L19" s="26">
-        <f t="shared" si="2"/>
         <v>-169.16666666666669</v>
       </c>
       <c r="M19" s="26">
-        <f t="shared" si="1"/>
         <v>-169.16666666666669</v>
       </c>
       <c r="N19" s="26">
         <v>0</v>
       </c>
       <c r="O19" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P19" s="23"/>
@@ -26840,8 +26777,7 @@
         <v>315</v>
       </c>
       <c r="D20" s="28">
-        <f>C20/9</f>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E20" s="28">
         <v>0</v>
@@ -26865,14 +26801,12 @@
         <v>0.01</v>
       </c>
       <c r="L20" s="30">
-        <f>-203*0.97</f>
         <v>-196.91</v>
       </c>
       <c r="M20" s="30">
         <v>-203</v>
       </c>
       <c r="N20" s="28">
-        <f>N49*(3/90)</f>
         <v>-9.3333333333333339</v>
       </c>
       <c r="O20" s="28">
@@ -26888,54 +26822,42 @@
         <v>2036</v>
       </c>
       <c r="B21" s="23">
-        <f t="shared" ref="B21:E36" si="4">B20</f>
         <v>1000</v>
       </c>
       <c r="C21" s="23">
-        <f>C20</f>
         <v>315</v>
       </c>
       <c r="D21" s="28">
-        <f>D20</f>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E21" s="28">
-        <f>E20</f>
         <v>0</v>
       </c>
       <c r="F21" s="26">
         <v>0</v>
       </c>
       <c r="G21" s="29">
-        <f>G20</f>
         <v>3.18</v>
       </c>
       <c r="H21" s="27">
-        <f t="shared" ref="H21:K36" si="5">H20</f>
         <v>0.12</v>
       </c>
       <c r="I21" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J21" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K21" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L21" s="28">
-        <f>L20-(-183/29)</f>
         <v>-190.59965517241378</v>
       </c>
       <c r="M21" s="30">
-        <f>M20</f>
         <v>-203</v>
       </c>
       <c r="N21" s="28">
-        <f>N20+(N$49/30)</f>
         <v>-18.666666666666668</v>
       </c>
       <c r="O21" s="28">
@@ -26951,54 +26873,42 @@
         <v>2037</v>
       </c>
       <c r="B22" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F22" s="26">
         <v>0</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22:K37" si="6">G21</f>
         <v>3.18</v>
       </c>
       <c r="H22" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J22" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K22" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L22" s="28">
-        <f t="shared" ref="L22:L48" si="7">L21-(-183/29)</f>
         <v>-184.28931034482756</v>
       </c>
       <c r="M22" s="30">
-        <f t="shared" ref="M22:O37" si="8">M21</f>
         <v>-203</v>
       </c>
       <c r="N22" s="28">
-        <f t="shared" ref="N22:N48" si="9">N21+(N$49/30)</f>
         <v>-28</v>
       </c>
       <c r="O22" s="28">
@@ -27014,54 +26924,42 @@
         <v>2038</v>
       </c>
       <c r="B23" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C23" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D23" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23" s="26">
         <v>0</v>
       </c>
       <c r="G23" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H23" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I23" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J23" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K23" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L23" s="28">
-        <f t="shared" si="7"/>
         <v>-177.97896551724133</v>
       </c>
       <c r="M23" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N23" s="28">
-        <f t="shared" si="9"/>
         <v>-37.333333333333336</v>
       </c>
       <c r="O23" s="28">
@@ -27077,54 +26975,42 @@
         <v>2039</v>
       </c>
       <c r="B24" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C24" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D24" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F24" s="26">
         <v>0</v>
       </c>
       <c r="G24" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H24" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J24" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K24" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L24" s="28">
-        <f t="shared" si="7"/>
         <v>-171.66862068965511</v>
       </c>
       <c r="M24" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N24" s="28">
-        <f t="shared" si="9"/>
         <v>-46.666666666666671</v>
       </c>
       <c r="O24" s="28">
@@ -27140,54 +27026,42 @@
         <v>2040</v>
       </c>
       <c r="B25" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D25" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F25" s="26">
         <v>0</v>
       </c>
       <c r="G25" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H25" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J25" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K25" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="7"/>
         <v>-165.35827586206889</v>
       </c>
       <c r="M25" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="9"/>
         <v>-56.000000000000007</v>
       </c>
       <c r="O25" s="28">
@@ -27203,54 +27077,42 @@
         <v>2041</v>
       </c>
       <c r="B26" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C26" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F26" s="26">
         <v>0</v>
       </c>
       <c r="G26" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H26" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I26" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J26" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K26" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L26" s="28">
-        <f t="shared" si="7"/>
         <v>-159.04793103448267</v>
       </c>
       <c r="M26" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" si="9"/>
         <v>-65.333333333333343</v>
       </c>
       <c r="O26" s="28">
@@ -27266,54 +27128,42 @@
         <v>2042</v>
       </c>
       <c r="B27" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C27" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F27" s="26">
         <v>0</v>
       </c>
       <c r="G27" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H27" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I27" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J27" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K27" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" si="7"/>
         <v>-152.73758620689645</v>
       </c>
       <c r="M27" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N27" s="28">
-        <f t="shared" si="9"/>
         <v>-74.666666666666671</v>
       </c>
       <c r="O27" s="28">
@@ -27329,54 +27179,42 @@
         <v>2043</v>
       </c>
       <c r="B28" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C28" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D28" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E28" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F28" s="26">
         <v>0</v>
       </c>
       <c r="G28" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H28" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I28" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J28" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K28" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L28" s="28">
-        <f t="shared" si="7"/>
         <v>-146.42724137931023</v>
       </c>
       <c r="M28" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N28" s="28">
-        <f t="shared" si="9"/>
         <v>-84</v>
       </c>
       <c r="O28" s="28">
@@ -27392,54 +27230,42 @@
         <v>2044</v>
       </c>
       <c r="B29" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C29" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D29" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E29" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F29" s="26">
         <v>0</v>
       </c>
       <c r="G29" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H29" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I29" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J29" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K29" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L29" s="28">
-        <f t="shared" si="7"/>
         <v>-140.11689655172401</v>
       </c>
       <c r="M29" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N29" s="28">
-        <f t="shared" si="9"/>
         <v>-93.333333333333329</v>
       </c>
       <c r="O29" s="28">
@@ -27455,54 +27281,42 @@
         <v>2045</v>
       </c>
       <c r="B30" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C30" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D30" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F30" s="26">
         <v>0</v>
       </c>
       <c r="G30" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H30" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J30" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K30" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L30" s="28">
-        <f t="shared" si="7"/>
         <v>-133.80655172413779</v>
       </c>
       <c r="M30" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N30" s="28">
-        <f t="shared" si="9"/>
         <v>-102.66666666666666</v>
       </c>
       <c r="O30" s="28">
@@ -27518,54 +27332,42 @@
         <v>2046</v>
       </c>
       <c r="B31" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C31" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D31" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E31" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31" s="26">
         <v>0</v>
       </c>
       <c r="G31" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H31" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I31" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J31" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K31" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L31" s="28">
-        <f t="shared" si="7"/>
         <v>-127.49620689655158</v>
       </c>
       <c r="M31" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N31" s="28">
-        <f t="shared" si="9"/>
         <v>-111.99999999999999</v>
       </c>
       <c r="O31" s="28">
@@ -27581,54 +27383,42 @@
         <v>2047</v>
       </c>
       <c r="B32" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C32" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D32" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E32" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F32" s="26">
         <v>0</v>
       </c>
       <c r="G32" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H32" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I32" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J32" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K32" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L32" s="28">
-        <f t="shared" si="7"/>
         <v>-121.18586206896538</v>
       </c>
       <c r="M32" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N32" s="28">
-        <f t="shared" si="9"/>
         <v>-121.33333333333331</v>
       </c>
       <c r="O32" s="28">
@@ -27644,54 +27434,42 @@
         <v>2048</v>
       </c>
       <c r="B33" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C33" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D33" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E33" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33" s="26">
         <v>0</v>
       </c>
       <c r="G33" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H33" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I33" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J33" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K33" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L33" s="28">
-        <f t="shared" si="7"/>
         <v>-114.87551724137917</v>
       </c>
       <c r="M33" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N33" s="28">
-        <f t="shared" si="9"/>
         <v>-130.66666666666666</v>
       </c>
       <c r="O33" s="28">
@@ -27707,54 +27485,42 @@
         <v>2049</v>
       </c>
       <c r="B34" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C34" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D34" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E34" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F34" s="26">
         <v>0</v>
       </c>
       <c r="G34" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H34" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I34" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J34" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K34" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L34" s="28">
-        <f t="shared" si="7"/>
         <v>-108.56517241379296</v>
       </c>
       <c r="M34" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N34" s="28">
-        <f t="shared" si="9"/>
         <v>-140</v>
       </c>
       <c r="O34" s="28">
@@ -27770,54 +27536,42 @@
         <v>2050</v>
       </c>
       <c r="B35" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C35" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D35" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E35" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F35" s="26">
         <v>0</v>
       </c>
       <c r="G35" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H35" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I35" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J35" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K35" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L35" s="28">
-        <f t="shared" si="7"/>
         <v>-102.25482758620676</v>
       </c>
       <c r="M35" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N35" s="28">
-        <f t="shared" si="9"/>
         <v>-149.33333333333334</v>
       </c>
       <c r="O35" s="28">
@@ -27833,54 +27587,42 @@
         <v>2051</v>
       </c>
       <c r="B36" s="23">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C36" s="23">
-        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="D36" s="28">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E36" s="28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F36" s="26">
         <v>0</v>
       </c>
       <c r="G36" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H36" s="27">
-        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="I36" s="27">
-        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J36" s="27">
-        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="K36" s="27">
-        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="L36" s="28">
-        <f t="shared" si="7"/>
         <v>-95.944482758620552</v>
       </c>
       <c r="M36" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N36" s="28">
-        <f t="shared" si="9"/>
         <v>-158.66666666666669</v>
       </c>
       <c r="O36" s="28">
@@ -27896,54 +27638,42 @@
         <v>2052</v>
       </c>
       <c r="B37" s="23">
-        <f t="shared" ref="B37:E52" si="10">B36</f>
         <v>1000</v>
       </c>
       <c r="C37" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D37" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E37" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F37" s="26">
         <v>0</v>
       </c>
       <c r="G37" s="29">
-        <f t="shared" si="6"/>
         <v>3.18</v>
       </c>
       <c r="H37" s="27">
-        <f t="shared" si="6"/>
         <v>0.12</v>
       </c>
       <c r="I37" s="27">
-        <f t="shared" si="6"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J37" s="27">
-        <f t="shared" si="6"/>
         <v>0.38</v>
       </c>
       <c r="K37" s="27">
-        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="L37" s="28">
-        <f t="shared" si="7"/>
         <v>-89.634137931034346</v>
       </c>
       <c r="M37" s="30">
-        <f t="shared" si="8"/>
         <v>-203</v>
       </c>
       <c r="N37" s="28">
-        <f t="shared" si="9"/>
         <v>-168.00000000000003</v>
       </c>
       <c r="O37" s="28">
@@ -27959,54 +27689,42 @@
         <v>2053</v>
       </c>
       <c r="B38" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C38" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D38" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E38" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F38" s="26">
         <v>0</v>
       </c>
       <c r="G38" s="29">
-        <f t="shared" ref="G38:O53" si="11">G37</f>
         <v>3.18</v>
       </c>
       <c r="H38" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I38" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J38" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K38" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L38" s="28">
-        <f t="shared" si="7"/>
         <v>-83.323793103448139</v>
       </c>
       <c r="M38" s="30">
-        <f t="shared" ref="M38:O51" si="12">M37</f>
         <v>-203</v>
       </c>
       <c r="N38" s="28">
-        <f t="shared" si="9"/>
         <v>-177.33333333333337</v>
       </c>
       <c r="O38" s="28">
@@ -28022,54 +27740,42 @@
         <v>2054</v>
       </c>
       <c r="B39" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C39" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D39" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E39" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F39" s="26">
         <v>0</v>
       </c>
       <c r="G39" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H39" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I39" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J39" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K39" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L39" s="28">
-        <f t="shared" si="7"/>
         <v>-77.013448275861933</v>
       </c>
       <c r="M39" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N39" s="28">
-        <f t="shared" si="9"/>
         <v>-186.66666666666671</v>
       </c>
       <c r="O39" s="28">
@@ -28085,54 +27791,42 @@
         <v>2055</v>
       </c>
       <c r="B40" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C40" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D40" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E40" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F40" s="26">
         <v>0</v>
       </c>
       <c r="G40" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I40" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J40" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L40" s="28">
-        <f t="shared" si="7"/>
         <v>-70.703103448275726</v>
       </c>
       <c r="M40" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N40" s="28">
-        <f t="shared" si="9"/>
         <v>-196.00000000000006</v>
       </c>
       <c r="O40" s="28">
@@ -28148,54 +27842,42 @@
         <v>2056</v>
       </c>
       <c r="B41" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C41" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D41" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E41" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F41" s="26">
         <v>0</v>
       </c>
       <c r="G41" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H41" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I41" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J41" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K41" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="7"/>
         <v>-64.39275862068952</v>
       </c>
       <c r="M41" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N41" s="28">
-        <f t="shared" si="9"/>
         <v>-205.3333333333334</v>
       </c>
       <c r="O41" s="28">
@@ -28211,54 +27893,42 @@
         <v>2057</v>
       </c>
       <c r="B42" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C42" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D42" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E42" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F42" s="26">
         <v>0</v>
       </c>
       <c r="G42" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H42" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I42" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J42" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K42" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L42" s="28">
-        <f t="shared" si="7"/>
         <v>-58.082413793103314</v>
       </c>
       <c r="M42" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N42" s="28">
-        <f t="shared" si="9"/>
         <v>-214.66666666666674</v>
       </c>
       <c r="O42" s="28">
@@ -28274,54 +27944,42 @@
         <v>2058</v>
       </c>
       <c r="B43" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C43" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D43" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E43" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F43" s="26">
         <v>0</v>
       </c>
       <c r="G43" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H43" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I43" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J43" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K43" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L43" s="28">
-        <f t="shared" si="7"/>
         <v>-51.772068965517107</v>
       </c>
       <c r="M43" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N43" s="28">
-        <f t="shared" si="9"/>
         <v>-224.00000000000009</v>
       </c>
       <c r="O43" s="28">
@@ -28337,54 +27995,42 @@
         <v>2059</v>
       </c>
       <c r="B44" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C44" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D44" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E44" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F44" s="26">
         <v>0</v>
       </c>
       <c r="G44" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H44" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I44" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J44" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K44" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L44" s="28">
-        <f t="shared" si="7"/>
         <v>-45.461724137930901</v>
       </c>
       <c r="M44" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N44" s="28">
-        <f t="shared" si="9"/>
         <v>-233.33333333333343</v>
       </c>
       <c r="O44" s="28">
@@ -28400,54 +28046,42 @@
         <v>2060</v>
       </c>
       <c r="B45" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C45" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D45" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E45" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F45" s="26">
         <v>0</v>
       </c>
       <c r="G45" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H45" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I45" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J45" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K45" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L45" s="28">
-        <f t="shared" si="7"/>
         <v>-39.151379310344694</v>
       </c>
       <c r="M45" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N45" s="28">
-        <f t="shared" si="9"/>
         <v>-242.66666666666677</v>
       </c>
       <c r="O45" s="28">
@@ -28463,54 +28097,42 @@
         <v>2061</v>
       </c>
       <c r="B46" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C46" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D46" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E46" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F46" s="26">
         <v>0</v>
       </c>
       <c r="G46" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H46" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I46" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J46" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K46" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L46" s="28">
-        <f t="shared" si="7"/>
         <v>-32.841034482758488</v>
       </c>
       <c r="M46" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N46" s="28">
-        <f t="shared" si="9"/>
         <v>-252.00000000000011</v>
       </c>
       <c r="O46" s="28">
@@ -28526,54 +28148,42 @@
         <v>2062</v>
       </c>
       <c r="B47" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C47" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D47" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E47" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F47" s="26">
         <v>0</v>
       </c>
       <c r="G47" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H47" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I47" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J47" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K47" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L47" s="28">
-        <f t="shared" si="7"/>
         <v>-26.530689655172282</v>
       </c>
       <c r="M47" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N47" s="28">
-        <f t="shared" si="9"/>
         <v>-261.33333333333343</v>
       </c>
       <c r="O47" s="28">
@@ -28589,54 +28199,42 @@
         <v>2063</v>
       </c>
       <c r="B48" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C48" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D48" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E48" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F48" s="26">
         <v>0</v>
       </c>
       <c r="G48" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H48" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I48" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J48" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K48" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L48" s="28">
-        <f t="shared" si="7"/>
         <v>-20.220344827586075</v>
       </c>
       <c r="M48" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N48" s="28">
-        <f t="shared" si="9"/>
         <v>-270.66666666666674</v>
       </c>
       <c r="O48" s="28">
@@ -28652,49 +28250,39 @@
         <v>2064</v>
       </c>
       <c r="B49" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C49" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D49" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E49" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F49" s="26">
         <v>0</v>
       </c>
       <c r="G49" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H49" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I49" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J49" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K49" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L49" s="30">
         <v>-20</v>
       </c>
       <c r="M49" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N49" s="28">
@@ -28713,58 +28301,45 @@
         <v>2065</v>
       </c>
       <c r="B50" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C50" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D50" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E50" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F50" s="26">
         <v>0</v>
       </c>
       <c r="G50" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H50" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I50" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J50" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K50" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L50" s="30">
-        <f>L49</f>
         <v>-20</v>
       </c>
       <c r="M50" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N50" s="28">
-        <f>N49</f>
         <v>-280</v>
       </c>
       <c r="O50" s="28">
-        <f>O49</f>
         <v>0</v>
       </c>
       <c r="P50" s="23"/>
@@ -28777,58 +28352,45 @@
         <v>2066</v>
       </c>
       <c r="B51" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C51" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D51" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E51" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F51" s="26">
         <v>0</v>
       </c>
       <c r="G51" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H51" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I51" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J51" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K51" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L51" s="30">
-        <f t="shared" si="11"/>
         <v>-20</v>
       </c>
       <c r="M51" s="30">
-        <f t="shared" si="12"/>
         <v>-203</v>
       </c>
       <c r="N51" s="28">
-        <f t="shared" si="12"/>
         <v>-280</v>
       </c>
       <c r="O51" s="28">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P51" s="23"/>
@@ -28841,58 +28403,45 @@
         <v>2067</v>
       </c>
       <c r="B52" s="23">
-        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="C52" s="23">
-        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D52" s="28">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E52" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F52" s="26">
         <v>0</v>
       </c>
       <c r="G52" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H52" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I52" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J52" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K52" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L52" s="30">
-        <f t="shared" si="11"/>
         <v>-20</v>
       </c>
       <c r="M52" s="30">
-        <f t="shared" si="11"/>
         <v>-203</v>
       </c>
       <c r="N52" s="28">
-        <f t="shared" si="11"/>
         <v>-280</v>
       </c>
       <c r="O52" s="28">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P52" s="23"/>
@@ -28905,58 +28454,45 @@
         <v>2068</v>
       </c>
       <c r="B53" s="23">
-        <f t="shared" ref="B53:E68" si="13">B52</f>
         <v>1000</v>
       </c>
       <c r="C53" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D53" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E53" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F53" s="26">
         <v>0</v>
       </c>
       <c r="G53" s="29">
-        <f t="shared" si="11"/>
         <v>3.18</v>
       </c>
       <c r="H53" s="27">
-        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="I53" s="27">
-        <f t="shared" si="11"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J53" s="27">
-        <f t="shared" si="11"/>
         <v>0.38</v>
       </c>
       <c r="K53" s="27">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="L53" s="30">
-        <f t="shared" si="11"/>
         <v>-20</v>
       </c>
       <c r="M53" s="30">
-        <f t="shared" si="11"/>
         <v>-203</v>
       </c>
       <c r="N53" s="28">
-        <f t="shared" si="11"/>
         <v>-280</v>
       </c>
       <c r="O53" s="28">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P53" s="23"/>
@@ -28969,58 +28505,45 @@
         <v>2069</v>
       </c>
       <c r="B54" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C54" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D54" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E54" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F54" s="26">
         <v>0</v>
       </c>
       <c r="G54" s="29">
-        <f t="shared" ref="G54:O69" si="14">G53</f>
         <v>3.18</v>
       </c>
       <c r="H54" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I54" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J54" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K54" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L54" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M54" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N54" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O54" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P54" s="23"/>
@@ -29033,58 +28556,45 @@
         <v>2070</v>
       </c>
       <c r="B55" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C55" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D55" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E55" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F55" s="26">
         <v>0</v>
       </c>
       <c r="G55" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H55" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I55" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J55" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K55" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L55" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M55" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N55" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O55" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P55" s="23"/>
@@ -29097,58 +28607,45 @@
         <v>2071</v>
       </c>
       <c r="B56" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C56" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D56" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E56" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F56" s="26">
         <v>0</v>
       </c>
       <c r="G56" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H56" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I56" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J56" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K56" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L56" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M56" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N56" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O56" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P56" s="23"/>
@@ -29161,58 +28658,45 @@
         <v>2072</v>
       </c>
       <c r="B57" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C57" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D57" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E57" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F57" s="26">
         <v>0</v>
       </c>
       <c r="G57" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H57" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I57" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J57" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K57" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L57" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M57" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N57" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O57" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P57" s="23"/>
@@ -29225,58 +28709,45 @@
         <v>2073</v>
       </c>
       <c r="B58" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C58" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D58" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E58" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F58" s="26">
         <v>0</v>
       </c>
       <c r="G58" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H58" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I58" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J58" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K58" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L58" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M58" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N58" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O58" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P58" s="23"/>
@@ -29289,58 +28760,45 @@
         <v>2074</v>
       </c>
       <c r="B59" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C59" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D59" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E59" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F59" s="26">
         <v>0</v>
       </c>
       <c r="G59" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H59" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I59" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J59" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K59" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L59" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M59" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N59" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O59" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P59" s="23"/>
@@ -29353,58 +28811,45 @@
         <v>2075</v>
       </c>
       <c r="B60" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C60" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D60" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E60" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F60" s="26">
         <v>0</v>
       </c>
       <c r="G60" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H60" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I60" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J60" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K60" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L60" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M60" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N60" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O60" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P60" s="23"/>
@@ -29417,58 +28862,45 @@
         <v>2076</v>
       </c>
       <c r="B61" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C61" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D61" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E61" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F61" s="26">
         <v>0</v>
       </c>
       <c r="G61" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H61" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I61" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J61" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K61" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L61" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M61" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N61" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O61" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P61" s="23"/>
@@ -29481,58 +28913,45 @@
         <v>2077</v>
       </c>
       <c r="B62" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C62" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D62" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E62" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F62" s="26">
         <v>0</v>
       </c>
       <c r="G62" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H62" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I62" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J62" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K62" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L62" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M62" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N62" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O62" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P62" s="23"/>
@@ -29545,58 +28964,45 @@
         <v>2078</v>
       </c>
       <c r="B63" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C63" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D63" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E63" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F63" s="26">
         <v>0</v>
       </c>
       <c r="G63" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H63" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I63" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J63" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K63" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L63" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M63" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N63" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O63" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P63" s="23"/>
@@ -29609,58 +29015,45 @@
         <v>2079</v>
       </c>
       <c r="B64" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C64" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D64" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E64" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F64" s="26">
         <v>0</v>
       </c>
       <c r="G64" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H64" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I64" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J64" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K64" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L64" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M64" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N64" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O64" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P64" s="23"/>
@@ -29673,58 +29066,45 @@
         <v>2080</v>
       </c>
       <c r="B65" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C65" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D65" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E65" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F65" s="26">
         <v>0</v>
       </c>
       <c r="G65" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H65" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I65" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J65" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K65" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L65" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M65" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N65" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O65" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P65" s="23"/>
@@ -29737,58 +29117,45 @@
         <v>2081</v>
       </c>
       <c r="B66" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C66" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D66" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E66" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F66" s="26">
         <v>0</v>
       </c>
       <c r="G66" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H66" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I66" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J66" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K66" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L66" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M66" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N66" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O66" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P66" s="23"/>
@@ -29801,58 +29168,45 @@
         <v>2082</v>
       </c>
       <c r="B67" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C67" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D67" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F67" s="26">
         <v>0</v>
       </c>
       <c r="G67" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H67" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I67" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J67" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K67" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L67" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M67" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N67" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O67" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P67" s="23"/>
@@ -29865,58 +29219,45 @@
         <v>2083</v>
       </c>
       <c r="B68" s="23">
-        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="C68" s="23">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D68" s="28">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E68" s="28">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F68" s="26">
         <v>0</v>
       </c>
       <c r="G68" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H68" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I68" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J68" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K68" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L68" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M68" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N68" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O68" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P68" s="23"/>
@@ -29929,58 +29270,45 @@
         <v>2084</v>
       </c>
       <c r="B69" s="23">
-        <f t="shared" ref="B69:E84" si="15">B68</f>
         <v>1000</v>
       </c>
       <c r="C69" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D69" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E69" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F69" s="26">
         <v>0</v>
       </c>
       <c r="G69" s="29">
-        <f t="shared" si="14"/>
         <v>3.18</v>
       </c>
       <c r="H69" s="27">
-        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="I69" s="27">
-        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J69" s="27">
-        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="K69" s="27">
-        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="L69" s="30">
-        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="M69" s="30">
-        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="N69" s="28">
-        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O69" s="28">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P69" s="23"/>
@@ -29993,58 +29321,45 @@
         <v>2085</v>
       </c>
       <c r="B70" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C70" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D70" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E70" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F70" s="26">
         <v>0</v>
       </c>
       <c r="G70" s="29">
-        <f t="shared" ref="G70:O85" si="16">G69</f>
         <v>3.18</v>
       </c>
       <c r="H70" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I70" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J70" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K70" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L70" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M70" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N70" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O70" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P70" s="23"/>
@@ -30057,58 +29372,45 @@
         <v>2086</v>
       </c>
       <c r="B71" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C71" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D71" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E71" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F71" s="26">
         <v>0</v>
       </c>
       <c r="G71" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H71" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I71" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J71" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K71" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L71" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M71" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N71" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O71" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P71" s="23"/>
@@ -30121,58 +29423,45 @@
         <v>2087</v>
       </c>
       <c r="B72" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C72" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D72" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E72" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F72" s="26">
         <v>0</v>
       </c>
       <c r="G72" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H72" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I72" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J72" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K72" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L72" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M72" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N72" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O72" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P72" s="23"/>
@@ -30185,58 +29474,45 @@
         <v>2088</v>
       </c>
       <c r="B73" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C73" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D73" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E73" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F73" s="26">
         <v>0</v>
       </c>
       <c r="G73" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H73" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I73" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J73" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K73" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L73" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M73" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N73" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O73" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P73" s="23"/>
@@ -30249,58 +29525,45 @@
         <v>2089</v>
       </c>
       <c r="B74" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C74" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D74" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E74" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F74" s="26">
         <v>0</v>
       </c>
       <c r="G74" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H74" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I74" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J74" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K74" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L74" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M74" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N74" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O74" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P74" s="23"/>
@@ -30313,58 +29576,45 @@
         <v>2090</v>
       </c>
       <c r="B75" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C75" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D75" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E75" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F75" s="26">
         <v>0</v>
       </c>
       <c r="G75" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H75" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I75" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J75" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K75" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L75" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M75" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N75" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O75" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P75" s="23"/>
@@ -30377,58 +29627,45 @@
         <v>2091</v>
       </c>
       <c r="B76" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C76" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D76" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E76" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F76" s="26">
         <v>0</v>
       </c>
       <c r="G76" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H76" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I76" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J76" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K76" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L76" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M76" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N76" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O76" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P76" s="23"/>
@@ -30441,58 +29678,45 @@
         <v>2092</v>
       </c>
       <c r="B77" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C77" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D77" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E77" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F77" s="26">
         <v>0</v>
       </c>
       <c r="G77" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H77" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I77" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J77" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K77" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L77" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M77" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N77" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O77" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P77" s="23"/>
@@ -30505,58 +29729,45 @@
         <v>2093</v>
       </c>
       <c r="B78" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C78" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D78" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E78" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F78" s="26">
         <v>0</v>
       </c>
       <c r="G78" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H78" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I78" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J78" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K78" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L78" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M78" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N78" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O78" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P78" s="23"/>
@@ -30569,58 +29780,45 @@
         <v>2094</v>
       </c>
       <c r="B79" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C79" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D79" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E79" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F79" s="26">
         <v>0</v>
       </c>
       <c r="G79" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H79" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I79" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J79" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K79" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L79" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M79" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N79" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O79" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P79" s="23"/>
@@ -30633,58 +29831,45 @@
         <v>2095</v>
       </c>
       <c r="B80" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C80" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D80" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E80" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F80" s="26">
         <v>0</v>
       </c>
       <c r="G80" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H80" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I80" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J80" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K80" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L80" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M80" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N80" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O80" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P80" s="23"/>
@@ -30697,58 +29882,45 @@
         <v>2096</v>
       </c>
       <c r="B81" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C81" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D81" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E81" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F81" s="26">
         <v>0</v>
       </c>
       <c r="G81" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H81" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I81" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J81" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K81" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L81" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M81" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N81" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O81" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P81" s="23"/>
@@ -30761,58 +29933,45 @@
         <v>2097</v>
       </c>
       <c r="B82" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C82" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D82" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E82" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F82" s="26">
         <v>0</v>
       </c>
       <c r="G82" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H82" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I82" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J82" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K82" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L82" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M82" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N82" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O82" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P82" s="23"/>
@@ -30825,58 +29984,45 @@
         <v>2098</v>
       </c>
       <c r="B83" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C83" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D83" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E83" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F83" s="26">
         <v>0</v>
       </c>
       <c r="G83" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H83" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I83" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J83" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K83" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L83" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M83" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N83" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O83" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P83" s="23"/>
@@ -30889,58 +30035,45 @@
         <v>2099</v>
       </c>
       <c r="B84" s="23">
-        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C84" s="23">
-        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="D84" s="28">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E84" s="28">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F84" s="26">
         <v>0</v>
       </c>
       <c r="G84" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H84" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I84" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J84" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K84" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L84" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M84" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N84" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O84" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P84" s="23"/>
@@ -30953,58 +30086,45 @@
         <v>2100</v>
       </c>
       <c r="B85" s="23">
-        <f t="shared" ref="B85:E85" si="17">B84</f>
         <v>1000</v>
       </c>
       <c r="C85" s="23">
-        <f t="shared" si="17"/>
         <v>315</v>
       </c>
       <c r="D85" s="28">
-        <f t="shared" si="17"/>
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E85" s="28">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F85" s="26">
         <v>0</v>
       </c>
       <c r="G85" s="29">
-        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="H85" s="27">
-        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I85" s="27">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J85" s="27">
-        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="K85" s="27">
-        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="L85" s="30">
-        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M85" s="30">
-        <f t="shared" si="16"/>
         <v>-203</v>
       </c>
       <c r="N85" s="28">
-        <f t="shared" si="16"/>
         <v>-280</v>
       </c>
       <c r="O85" s="28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P85" s="23"/>
@@ -31046,7 +30166,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -31061,10 +30181,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>1</v>
@@ -31073,13 +30193,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="H1" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>38</v>
@@ -31128,28 +30248,28 @@
         <v>39</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>42</v>
-      </c>
       <c r="G3" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31651,34 +30771,27 @@
         <v>2035</v>
       </c>
       <c r="B20" s="28">
-        <f>((C20*1000*16)/3600)*0.85</f>
         <v>419.371839293123</v>
       </c>
       <c r="C20" s="28">
-        <f>D20*8.8</f>
         <v>111.01019275406196</v>
       </c>
       <c r="D20" s="28">
-        <f>D25/6</f>
-        <v>12.614794631143404</v>
+        <v>12614.794631143401</v>
       </c>
       <c r="E20" s="28">
-        <f>D20</f>
-        <v>12.614794631143404</v>
+        <v>12614.794631143401</v>
       </c>
       <c r="F20" s="28">
-        <f>-(((((8.8/2)*1.5)-2)*3.67)/20)*D20</f>
         <v>-10.648148148148149</v>
       </c>
       <c r="G20" s="30">
-        <f>-B20*0.255*0.1</f>
         <v>-10.693981901974638</v>
       </c>
       <c r="H20" s="23">
         <v>0</v>
       </c>
       <c r="I20" s="28">
-        <f>I25/6</f>
         <v>166.66666666666666</v>
       </c>
       <c r="J20" s="23">
@@ -31690,34 +30803,27 @@
         <v>2036</v>
       </c>
       <c r="B21" s="28">
-        <f t="shared" ref="B21:B84" si="0">((C21*1000*16)/3600)*0.85</f>
         <v>838.74367858624601</v>
       </c>
       <c r="C21" s="28">
-        <f t="shared" ref="C21:C84" si="1">D21*8.8</f>
         <v>222.02038550812392</v>
       </c>
       <c r="D21" s="28">
-        <f>D20+(D$25/6)</f>
-        <v>25.229589262286808</v>
+        <v>25229.589262286801</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" ref="E21:E24" si="2">D21</f>
-        <v>25.229589262286808</v>
+        <v>25229.589262286801</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" ref="F21:F44" si="3">-(((((8.8/2)*1.5)-2)*3.67)/20)*D21</f>
         <v>-21.296296296296298</v>
       </c>
       <c r="G21" s="30">
-        <f t="shared" ref="G21:G84" si="4">-B21*0.255*0.1</f>
         <v>-21.387963803949276</v>
       </c>
       <c r="H21" s="23">
         <v>0</v>
       </c>
       <c r="I21" s="28">
-        <f>I20+(I$25/6)</f>
         <v>333.33333333333331</v>
       </c>
       <c r="J21" s="23">
@@ -31729,34 +30835,27 @@
         <v>2037</v>
       </c>
       <c r="B22" s="28">
-        <f t="shared" si="0"/>
         <v>1258.115517879369</v>
       </c>
       <c r="C22" s="28">
-        <f t="shared" si="1"/>
         <v>333.03057826218588</v>
       </c>
       <c r="D22" s="28">
-        <f>D21+(D$25/6)</f>
-        <v>37.844383893430212</v>
+        <v>37844.383893430197</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="2"/>
-        <v>37.844383893430212</v>
+        <v>37844.383893430197</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="3"/>
         <v>-31.944444444444446</v>
       </c>
       <c r="G22" s="30">
-        <f t="shared" si="4"/>
         <v>-32.081945705923907</v>
       </c>
       <c r="H22" s="23">
         <v>0</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" ref="I22:I24" si="5">I21+(I$25/6)</f>
         <v>500</v>
       </c>
       <c r="J22" s="23">
@@ -31768,34 +30867,27 @@
         <v>2038</v>
       </c>
       <c r="B23" s="28">
-        <f t="shared" si="0"/>
         <v>1677.487357172492</v>
       </c>
       <c r="C23" s="28">
-        <f t="shared" si="1"/>
         <v>444.04077101624785</v>
       </c>
       <c r="D23" s="28">
-        <f>D22+(D$25/6)</f>
-        <v>50.459178524573616</v>
+        <v>50459.178524573603</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="2"/>
-        <v>50.459178524573616</v>
+        <v>50459.178524573603</v>
       </c>
       <c r="F23" s="28">
-        <f t="shared" si="3"/>
         <v>-42.592592592592595</v>
       </c>
       <c r="G23" s="30">
-        <f t="shared" si="4"/>
         <v>-42.775927607898552</v>
       </c>
       <c r="H23" s="23">
         <v>0</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="5"/>
         <v>666.66666666666663</v>
       </c>
       <c r="J23" s="23">
@@ -31807,34 +30899,27 @@
         <v>2039</v>
       </c>
       <c r="B24" s="28">
-        <f t="shared" si="0"/>
         <v>2096.8591964656148</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" si="1"/>
         <v>555.05096377030986</v>
       </c>
       <c r="D24" s="28">
-        <f>D23+(D$25/6)</f>
-        <v>63.07397315571702</v>
+        <v>63073.973155717002</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="2"/>
-        <v>63.07397315571702</v>
+        <v>63073.973155717002</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="3"/>
         <v>-53.24074074074074</v>
       </c>
       <c r="G24" s="30">
-        <f t="shared" si="4"/>
         <v>-53.469909509873176</v>
       </c>
       <c r="H24" s="23">
         <v>0</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" si="5"/>
         <v>833.33333333333326</v>
       </c>
       <c r="J24" s="23">
@@ -31846,27 +30931,21 @@
         <v>2040</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D25" s="28">
-        <f>((((I25/0.9)/3.67)*2))/8</f>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E25" s="28">
-        <f>D25</f>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G25" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H25" s="23">
@@ -31884,27 +30963,21 @@
         <v>2041</v>
       </c>
       <c r="B26" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C26" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D26" s="28">
-        <f>D25</f>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E26" s="28">
-        <f>E25</f>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G26" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H26" s="23">
@@ -31922,27 +30995,21 @@
         <v>2042</v>
       </c>
       <c r="B27" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C27" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" ref="D27:E42" si="6">D26</f>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G27" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H27" s="23">
@@ -31960,27 +31027,21 @@
         <v>2043</v>
       </c>
       <c r="B28" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C28" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D28" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E28" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F28" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G28" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H28" s="23">
@@ -31998,27 +31059,21 @@
         <v>2044</v>
       </c>
       <c r="B29" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C29" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D29" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E29" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F29" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G29" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H29" s="23">
@@ -32036,27 +31091,21 @@
         <v>2045</v>
       </c>
       <c r="B30" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C30" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D30" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F30" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G30" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H30" s="23">
@@ -32074,27 +31123,21 @@
         <v>2046</v>
       </c>
       <c r="B31" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C31" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D31" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E31" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F31" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G31" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H31" s="23">
@@ -32112,27 +31155,21 @@
         <v>2047</v>
       </c>
       <c r="B32" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C32" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D32" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E32" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F32" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G32" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H32" s="23">
@@ -32150,27 +31187,21 @@
         <v>2048</v>
       </c>
       <c r="B33" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C33" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D33" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E33" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F33" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G33" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H33" s="23">
@@ -32188,27 +31219,21 @@
         <v>2049</v>
       </c>
       <c r="B34" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C34" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D34" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E34" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F34" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G34" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H34" s="23">
@@ -32226,27 +31251,21 @@
         <v>2050</v>
       </c>
       <c r="B35" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C35" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D35" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E35" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F35" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G35" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H35" s="23">
@@ -32264,27 +31283,21 @@
         <v>2051</v>
       </c>
       <c r="B36" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C36" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D36" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E36" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F36" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G36" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H36" s="23">
@@ -32302,27 +31315,21 @@
         <v>2052</v>
       </c>
       <c r="B37" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C37" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D37" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E37" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F37" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G37" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H37" s="23">
@@ -32340,27 +31347,21 @@
         <v>2053</v>
       </c>
       <c r="B38" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D38" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E38" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F38" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G38" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H38" s="23">
@@ -32378,27 +31379,21 @@
         <v>2054</v>
       </c>
       <c r="B39" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C39" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D39" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E39" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F39" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G39" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H39" s="23">
@@ -32416,27 +31411,21 @@
         <v>2055</v>
       </c>
       <c r="B40" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C40" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D40" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E40" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F40" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G40" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H40" s="23">
@@ -32454,27 +31443,21 @@
         <v>2056</v>
       </c>
       <c r="B41" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D41" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E41" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F41" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G41" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H41" s="23">
@@ -32492,27 +31475,21 @@
         <v>2057</v>
       </c>
       <c r="B42" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C42" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D42" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E42" s="28">
-        <f t="shared" si="6"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F42" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G42" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H42" s="23">
@@ -32530,27 +31507,21 @@
         <v>2058</v>
       </c>
       <c r="B43" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D43" s="28">
-        <f t="shared" ref="D43:E58" si="7">D42</f>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E43" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F43" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G43" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H43" s="23">
@@ -32568,27 +31539,21 @@
         <v>2059</v>
       </c>
       <c r="B44" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C44" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D44" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E44" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F44" s="28">
-        <f t="shared" si="3"/>
         <v>-63.888888888888893</v>
       </c>
       <c r="G44" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H44" s="23">
@@ -32606,26 +31571,21 @@
         <v>2060</v>
       </c>
       <c r="B45" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C45" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D45" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E45" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F45" s="28">
         <v>0</v>
       </c>
       <c r="G45" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H45" s="23">
@@ -32643,26 +31603,21 @@
         <v>2061</v>
       </c>
       <c r="B46" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C46" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D46" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E46" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F46" s="28">
         <v>0</v>
       </c>
       <c r="G46" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H46" s="23">
@@ -32680,26 +31635,21 @@
         <v>2062</v>
       </c>
       <c r="B47" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C47" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D47" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E47" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F47" s="28">
         <v>0</v>
       </c>
       <c r="G47" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H47" s="23">
@@ -32717,26 +31667,21 @@
         <v>2063</v>
       </c>
       <c r="B48" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C48" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D48" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E48" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F48" s="28">
         <v>0</v>
       </c>
       <c r="G48" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H48" s="23">
@@ -32754,26 +31699,21 @@
         <v>2064</v>
       </c>
       <c r="B49" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C49" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D49" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E49" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F49" s="28">
         <v>0</v>
       </c>
       <c r="G49" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H49" s="23">
@@ -32791,26 +31731,21 @@
         <v>2065</v>
       </c>
       <c r="B50" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C50" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D50" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E50" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F50" s="28">
         <v>0</v>
       </c>
       <c r="G50" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H50" s="23">
@@ -32828,26 +31763,21 @@
         <v>2066</v>
       </c>
       <c r="B51" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C51" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D51" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E51" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F51" s="28">
         <v>0</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H51" s="23">
@@ -32865,26 +31795,21 @@
         <v>2067</v>
       </c>
       <c r="B52" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C52" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D52" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E52" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F52" s="28">
         <v>0</v>
       </c>
       <c r="G52" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H52" s="23">
@@ -32902,26 +31827,21 @@
         <v>2068</v>
       </c>
       <c r="B53" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C53" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D53" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E53" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F53" s="28">
         <v>0</v>
       </c>
       <c r="G53" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H53" s="23">
@@ -32939,26 +31859,21 @@
         <v>2069</v>
       </c>
       <c r="B54" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C54" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D54" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E54" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F54" s="28">
         <v>0</v>
       </c>
       <c r="G54" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H54" s="23">
@@ -32976,26 +31891,21 @@
         <v>2070</v>
       </c>
       <c r="B55" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C55" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D55" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E55" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F55" s="28">
         <v>0</v>
       </c>
       <c r="G55" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H55" s="23">
@@ -33013,26 +31923,21 @@
         <v>2071</v>
       </c>
       <c r="B56" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C56" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D56" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E56" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F56" s="28">
         <v>0</v>
       </c>
       <c r="G56" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H56" s="23">
@@ -33050,26 +31955,21 @@
         <v>2072</v>
       </c>
       <c r="B57" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C57" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D57" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E57" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F57" s="28">
         <v>0</v>
       </c>
       <c r="G57" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H57" s="23">
@@ -33087,26 +31987,21 @@
         <v>2073</v>
       </c>
       <c r="B58" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C58" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D58" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E58" s="28">
-        <f t="shared" si="7"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F58" s="28">
         <v>0</v>
       </c>
       <c r="G58" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H58" s="23">
@@ -33124,26 +32019,21 @@
         <v>2074</v>
       </c>
       <c r="B59" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C59" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D59" s="28">
-        <f t="shared" ref="D59:E74" si="8">D58</f>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E59" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F59" s="28">
         <v>0</v>
       </c>
       <c r="G59" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H59" s="23">
@@ -33161,26 +32051,21 @@
         <v>2075</v>
       </c>
       <c r="B60" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C60" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D60" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E60" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F60" s="28">
         <v>0</v>
       </c>
       <c r="G60" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H60" s="23">
@@ -33198,26 +32083,21 @@
         <v>2076</v>
       </c>
       <c r="B61" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C61" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D61" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E61" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F61" s="28">
         <v>0</v>
       </c>
       <c r="G61" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H61" s="23">
@@ -33235,26 +32115,21 @@
         <v>2077</v>
       </c>
       <c r="B62" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C62" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D62" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E62" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F62" s="28">
         <v>0</v>
       </c>
       <c r="G62" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H62" s="23">
@@ -33272,26 +32147,21 @@
         <v>2078</v>
       </c>
       <c r="B63" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C63" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D63" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E63" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F63" s="28">
         <v>0</v>
       </c>
       <c r="G63" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H63" s="23">
@@ -33309,26 +32179,21 @@
         <v>2079</v>
       </c>
       <c r="B64" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C64" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D64" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E64" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F64" s="28">
         <v>0</v>
       </c>
       <c r="G64" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H64" s="23">
@@ -33346,26 +32211,21 @@
         <v>2080</v>
       </c>
       <c r="B65" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C65" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D65" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E65" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F65" s="28">
         <v>0</v>
       </c>
       <c r="G65" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H65" s="23">
@@ -33383,26 +32243,21 @@
         <v>2081</v>
       </c>
       <c r="B66" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C66" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D66" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E66" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F66" s="28">
         <v>0</v>
       </c>
       <c r="G66" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H66" s="23">
@@ -33420,26 +32275,21 @@
         <v>2082</v>
       </c>
       <c r="B67" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C67" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D67" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F67" s="28">
         <v>0</v>
       </c>
       <c r="G67" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H67" s="23">
@@ -33457,26 +32307,21 @@
         <v>2083</v>
       </c>
       <c r="B68" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C68" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D68" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E68" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F68" s="28">
         <v>0</v>
       </c>
       <c r="G68" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H68" s="23">
@@ -33494,26 +32339,21 @@
         <v>2084</v>
       </c>
       <c r="B69" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C69" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D69" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E69" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F69" s="28">
         <v>0</v>
       </c>
       <c r="G69" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H69" s="23">
@@ -33531,26 +32371,21 @@
         <v>2085</v>
       </c>
       <c r="B70" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C70" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D70" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E70" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F70" s="28">
         <v>0</v>
       </c>
       <c r="G70" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H70" s="23">
@@ -33568,26 +32403,21 @@
         <v>2086</v>
       </c>
       <c r="B71" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C71" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D71" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E71" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F71" s="28">
         <v>0</v>
       </c>
       <c r="G71" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H71" s="23">
@@ -33605,26 +32435,21 @@
         <v>2087</v>
       </c>
       <c r="B72" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C72" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D72" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E72" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F72" s="28">
         <v>0</v>
       </c>
       <c r="G72" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H72" s="23">
@@ -33642,26 +32467,21 @@
         <v>2088</v>
       </c>
       <c r="B73" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C73" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D73" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E73" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F73" s="28">
         <v>0</v>
       </c>
       <c r="G73" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H73" s="23">
@@ -33679,26 +32499,21 @@
         <v>2089</v>
       </c>
       <c r="B74" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C74" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D74" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E74" s="28">
-        <f t="shared" si="8"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F74" s="28">
         <v>0</v>
       </c>
       <c r="G74" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H74" s="23">
@@ -33716,26 +32531,21 @@
         <v>2090</v>
       </c>
       <c r="B75" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C75" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D75" s="28">
-        <f t="shared" ref="D75:E85" si="9">D74</f>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E75" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F75" s="28">
         <v>0</v>
       </c>
       <c r="G75" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H75" s="23">
@@ -33753,26 +32563,21 @@
         <v>2091</v>
       </c>
       <c r="B76" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C76" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D76" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E76" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F76" s="28">
         <v>0</v>
       </c>
       <c r="G76" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H76" s="23">
@@ -33790,26 +32595,21 @@
         <v>2092</v>
       </c>
       <c r="B77" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C77" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D77" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E77" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F77" s="28">
         <v>0</v>
       </c>
       <c r="G77" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H77" s="23">
@@ -33827,26 +32627,21 @@
         <v>2093</v>
       </c>
       <c r="B78" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C78" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D78" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E78" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F78" s="28">
         <v>0</v>
       </c>
       <c r="G78" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H78" s="23">
@@ -33864,26 +32659,21 @@
         <v>2094</v>
       </c>
       <c r="B79" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C79" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D79" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E79" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F79" s="28">
         <v>0</v>
       </c>
       <c r="G79" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H79" s="23">
@@ -33901,26 +32691,21 @@
         <v>2095</v>
       </c>
       <c r="B80" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C80" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D80" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E80" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F80" s="28">
         <v>0</v>
       </c>
       <c r="G80" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H80" s="23">
@@ -33938,26 +32723,21 @@
         <v>2096</v>
       </c>
       <c r="B81" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C81" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D81" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E81" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F81" s="28">
         <v>0</v>
       </c>
       <c r="G81" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H81" s="23">
@@ -33975,26 +32755,21 @@
         <v>2097</v>
       </c>
       <c r="B82" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C82" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D82" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E82" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F82" s="28">
         <v>0</v>
       </c>
       <c r="G82" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H82" s="23">
@@ -34012,26 +32787,21 @@
         <v>2098</v>
       </c>
       <c r="B83" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C83" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D83" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E83" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F83" s="28">
         <v>0</v>
       </c>
       <c r="G83" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H83" s="23">
@@ -34049,26 +32819,21 @@
         <v>2099</v>
       </c>
       <c r="B84" s="28">
-        <f t="shared" si="0"/>
         <v>2516.231035758738</v>
       </c>
       <c r="C84" s="28">
-        <f t="shared" si="1"/>
         <v>666.06115652437177</v>
       </c>
       <c r="D84" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E84" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F84" s="28">
         <v>0</v>
       </c>
       <c r="G84" s="30">
-        <f t="shared" si="4"/>
         <v>-64.163891411847814</v>
       </c>
       <c r="H84" s="23">
@@ -34086,26 +32851,21 @@
         <v>2100</v>
       </c>
       <c r="B85" s="28">
-        <f t="shared" ref="B85" si="10">((C85*1000*16)/3600)*0.85</f>
         <v>2516.231035758738</v>
       </c>
       <c r="C85" s="28">
-        <f t="shared" ref="C85" si="11">D85*8.8</f>
         <v>666.06115652437177</v>
       </c>
       <c r="D85" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="E85" s="28">
-        <f t="shared" si="9"/>
-        <v>75.688767786860424</v>
+        <v>75688.767786860393</v>
       </c>
       <c r="F85" s="28">
         <v>0</v>
       </c>
       <c r="G85" s="30">
-        <f t="shared" ref="G85" si="12">-B85*0.255*0.1</f>
         <v>-64.163891411847814</v>
       </c>
       <c r="H85" s="23">
